--- a/analise/Gerenciamento.xlsx
+++ b/analise/Gerenciamento.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\TCC\analise\casos de uso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\TCC\analise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5914D6B6-9F43-4155-972B-337EC83F4834}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DF9529-B783-421F-89EB-3723E940A5A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requisitos" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="103">
   <si>
     <t>Modulo</t>
   </si>
@@ -297,6 +297,51 @@
   </si>
   <si>
     <t>Nome Atividade</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Inserir Anúncio</t>
+  </si>
+  <si>
+    <t>Cadastrar Funcionario</t>
+  </si>
+  <si>
+    <t>Carrinho</t>
+  </si>
+  <si>
+    <t>Finalizar Comprar</t>
+  </si>
+  <si>
+    <t>Cancelar conta</t>
+  </si>
+  <si>
+    <t>Devolução</t>
+  </si>
+  <si>
+    <t>Comfirmar Devolução - Funcionario</t>
+  </si>
+  <si>
+    <t>Esqueci a Senha</t>
+  </si>
+  <si>
+    <t>Minhas Comprar</t>
+  </si>
+  <si>
+    <t>Cancelar Pedido</t>
+  </si>
+  <si>
+    <t>Alterar Dados - Cliente</t>
+  </si>
+  <si>
+    <t>Favoritos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfil/Endereço </t>
   </si>
 </sst>
 </file>
@@ -654,7 +699,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -740,82 +785,79 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2152,7 +2194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18:A20"/>
     </sheetView>
   </sheetViews>
@@ -2191,7 +2233,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="47" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -2212,7 +2254,7 @@
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
@@ -2231,7 +2273,7 @@
       <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="14" t="s">
         <v>26</v>
       </c>
@@ -2250,7 +2292,7 @@
       <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="18" t="s">
         <v>21</v>
       </c>
@@ -2269,7 +2311,7 @@
       <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="18" t="s">
         <v>23</v>
       </c>
@@ -2288,7 +2330,7 @@
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2309,7 +2351,7 @@
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="7" t="s">
         <v>30</v>
       </c>
@@ -2328,7 +2370,7 @@
       <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="37"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="14" t="s">
         <v>32</v>
       </c>
@@ -2347,7 +2389,7 @@
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="18" t="s">
         <v>34</v>
       </c>
@@ -2366,7 +2408,7 @@
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="37"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="18" t="s">
         <v>36</v>
       </c>
@@ -2385,7 +2427,7 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="47" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -2406,7 +2448,7 @@
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="14" t="s">
         <v>40</v>
       </c>
@@ -2425,7 +2467,7 @@
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="18" t="s">
         <v>41</v>
       </c>
@@ -2444,7 +2486,7 @@
       <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="18" t="s">
         <v>42</v>
       </c>
@@ -2463,7 +2505,7 @@
       <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="37"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="18" t="s">
         <v>43</v>
       </c>
@@ -2482,7 +2524,7 @@
       <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="37"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="14" t="s">
         <v>44</v>
       </c>
@@ -2501,7 +2543,7 @@
       <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="47" t="s">
         <v>53</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -2522,7 +2564,7 @@
       <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="14" t="s">
         <v>55</v>
       </c>
@@ -2541,7 +2583,7 @@
       <c r="G19" s="12"/>
     </row>
     <row r="20" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="14" t="s">
         <v>56</v>
       </c>
@@ -2560,10 +2602,10 @@
       <c r="G20" s="12"/>
     </row>
     <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="41"/>
+      <c r="B21" s="51"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
@@ -2587,10 +2629,10 @@
       <c r="A25" s="26"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="39"/>
+      <c r="B26" s="49"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="27">
@@ -2686,31 +2728,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3E3989-44EE-421D-BBD1-34EC265F0F69}">
-  <dimension ref="A1:F339"/>
+  <dimension ref="A1:F340"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" thickBottom="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.85546875" style="36" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="36" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.42578125" style="36" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="38" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" style="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
@@ -2725,7 +2767,7 @@
       <c r="D2" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="43" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="35" t="s">
@@ -2733,187 +2775,187 @@
       </c>
     </row>
     <row r="3" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49">
+      <c r="A3" s="57">
         <v>1</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="52">
+        <v>44121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="54"/>
+      <c r="B4" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="53"/>
+    </row>
+    <row r="5" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="57">
+        <v>2</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="52">
+        <v>44123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="54"/>
+      <c r="B6" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="54"/>
+    </row>
+    <row r="7" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="55"/>
+      <c r="B7" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="55"/>
+    </row>
+    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="57">
+        <v>3</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="52">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="54"/>
+      <c r="B9" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="54"/>
+    </row>
+    <row r="10" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="55"/>
+      <c r="B10" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="55"/>
+    </row>
+    <row r="11" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="57">
+        <v>4</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="52">
+        <v>44127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="54"/>
+      <c r="B12" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="53">
-        <v>44121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52" t="s">
+      <c r="D12" s="54"/>
+    </row>
+    <row r="13" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="55"/>
+      <c r="B13" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="55"/>
+    </row>
+    <row r="14" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="57">
+        <v>5</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="52">
+        <v>44129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="54"/>
+      <c r="B15" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="54"/>
-    </row>
-    <row r="5" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="52" t="s">
+      <c r="D15" s="54"/>
+    </row>
+    <row r="16" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="55"/>
+      <c r="B16" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="55"/>
-    </row>
-    <row r="6" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="49">
-        <v>2</v>
-      </c>
-      <c r="B6" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="53">
-        <v>44123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
-      <c r="B7" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="51"/>
-    </row>
-    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="50"/>
-      <c r="B8" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="50"/>
-    </row>
-    <row r="9" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="49">
-        <v>3</v>
-      </c>
-      <c r="B9" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="53">
-        <v>44125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="51"/>
-      <c r="B10" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="51"/>
-    </row>
-    <row r="11" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="50"/>
-      <c r="B11" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="50"/>
-    </row>
-    <row r="12" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49">
-        <v>4</v>
-      </c>
-      <c r="B12" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="53">
-        <v>44127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
-      <c r="B13" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="51"/>
-    </row>
-    <row r="14" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="50"/>
-      <c r="B14" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="50"/>
-    </row>
-    <row r="15" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="49">
-        <v>5</v>
-      </c>
-      <c r="B15" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="53">
-        <v>44129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="51"/>
-      <c r="B16" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="51"/>
+      <c r="D16" s="55"/>
     </row>
     <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="50"/>
-      <c r="B17" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="50"/>
+      <c r="A17" s="57">
+        <v>6</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="52">
+        <v>44131</v>
+      </c>
     </row>
     <row r="18" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="49">
-        <v>6</v>
-      </c>
-      <c r="B18" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="53">
-        <v>44131</v>
-      </c>
+      <c r="A18" s="54"/>
+      <c r="B18" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="54"/>
     </row>
     <row r="19" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="51"/>
-      <c r="B19" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="51"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="55"/>
     </row>
     <row r="20" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="50"/>
-      <c r="B20" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="50"/>
+      <c r="A20" s="57">
+        <v>7</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="52">
+        <v>44133</v>
+      </c>
     </row>
     <row r="21" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="49">
-        <v>7</v>
-      </c>
-      <c r="B21" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="53">
-        <v>44133</v>
-      </c>
+      <c r="A21" s="54"/>
+      <c r="B21" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="53"/>
     </row>
     <row r="22" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
-      <c r="B22" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="50"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="55"/>
     </row>
     <row r="23" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="57">
+      <c r="A23" s="41">
         <v>8</v>
       </c>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="39" t="s">
         <v>81</v>
       </c>
       <c r="C23" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="58">
+      <c r="D23" s="42">
         <v>44135</v>
       </c>
-      <c r="E23" s="48" t="s">
+      <c r="E23" s="38" t="s">
         <v>83</v>
       </c>
       <c r="F23" s="36" t="s">
@@ -2921,964 +2963,965 @@
       </c>
     </row>
     <row r="24" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="56"/>
+      <c r="D24" s="40"/>
     </row>
     <row r="25" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="56"/>
+      <c r="D25" s="40"/>
     </row>
     <row r="26" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="56"/>
+      <c r="D26" s="40"/>
     </row>
     <row r="27" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="56"/>
+      <c r="D27" s="40"/>
     </row>
     <row r="28" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="56"/>
+      <c r="D28" s="40"/>
     </row>
     <row r="29" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="56"/>
+      <c r="D29" s="40"/>
     </row>
     <row r="30" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="56"/>
+      <c r="D30" s="40"/>
     </row>
     <row r="31" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="56"/>
+      <c r="D31" s="40"/>
     </row>
     <row r="32" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="56"/>
+      <c r="D32" s="40"/>
     </row>
     <row r="33" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="56"/>
+      <c r="D33" s="40"/>
     </row>
     <row r="34" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="56"/>
+      <c r="D34" s="40"/>
     </row>
     <row r="35" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="56"/>
+      <c r="D35" s="40"/>
     </row>
     <row r="36" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="56"/>
+      <c r="D36" s="40"/>
     </row>
     <row r="37" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="56"/>
+      <c r="D37" s="40"/>
     </row>
     <row r="38" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="56"/>
+      <c r="D38" s="40"/>
     </row>
     <row r="39" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="56"/>
+      <c r="D39" s="40"/>
     </row>
     <row r="40" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D40" s="56"/>
+      <c r="D40" s="40"/>
     </row>
     <row r="41" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="56"/>
+      <c r="D41" s="40"/>
     </row>
     <row r="42" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D42" s="56"/>
+      <c r="D42" s="40"/>
     </row>
     <row r="43" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="56"/>
+      <c r="D43" s="40"/>
     </row>
     <row r="44" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D44" s="56"/>
+      <c r="D44" s="40"/>
     </row>
     <row r="45" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="56"/>
+      <c r="D45" s="40"/>
     </row>
     <row r="46" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D46" s="56"/>
+      <c r="D46" s="40"/>
     </row>
     <row r="47" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D47" s="56"/>
+      <c r="D47" s="40"/>
     </row>
     <row r="48" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D48" s="56"/>
+      <c r="D48" s="40"/>
     </row>
     <row r="49" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D49" s="56"/>
+      <c r="D49" s="40"/>
     </row>
     <row r="50" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="56"/>
+      <c r="D50" s="40"/>
     </row>
     <row r="51" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D51" s="56"/>
+      <c r="D51" s="40"/>
     </row>
     <row r="52" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D52" s="56"/>
+      <c r="D52" s="40"/>
     </row>
     <row r="53" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="56"/>
+      <c r="D53" s="40"/>
     </row>
     <row r="54" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D54" s="56"/>
+      <c r="D54" s="40"/>
     </row>
     <row r="55" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D55" s="56"/>
+      <c r="D55" s="40"/>
     </row>
     <row r="56" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D56" s="56"/>
+      <c r="D56" s="40"/>
     </row>
     <row r="57" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D57" s="56"/>
+      <c r="D57" s="40"/>
     </row>
     <row r="58" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D58" s="56"/>
+      <c r="D58" s="40"/>
     </row>
     <row r="59" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D59" s="56"/>
+      <c r="D59" s="40"/>
     </row>
     <row r="60" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="56"/>
+      <c r="D60" s="40"/>
     </row>
     <row r="61" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D61" s="56"/>
+      <c r="D61" s="40"/>
     </row>
     <row r="62" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D62" s="56"/>
+      <c r="D62" s="40"/>
     </row>
     <row r="63" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D63" s="56"/>
+      <c r="D63" s="40"/>
     </row>
     <row r="64" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D64" s="56"/>
+      <c r="D64" s="40"/>
     </row>
     <row r="65" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="56"/>
+      <c r="D65" s="40"/>
     </row>
     <row r="66" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D66" s="56"/>
+      <c r="D66" s="40"/>
     </row>
     <row r="67" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D67" s="56"/>
+      <c r="D67" s="40"/>
     </row>
     <row r="68" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D68" s="56"/>
+      <c r="D68" s="40"/>
     </row>
     <row r="69" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D69" s="56"/>
+      <c r="D69" s="40"/>
     </row>
     <row r="70" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D70" s="56"/>
+      <c r="D70" s="40"/>
     </row>
     <row r="71" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D71" s="56"/>
+      <c r="D71" s="40"/>
     </row>
     <row r="72" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D72" s="56"/>
+      <c r="D72" s="40"/>
     </row>
     <row r="73" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D73" s="56"/>
+      <c r="D73" s="40"/>
     </row>
     <row r="74" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D74" s="56"/>
+      <c r="D74" s="40"/>
     </row>
     <row r="75" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D75" s="56"/>
+      <c r="D75" s="40"/>
     </row>
     <row r="76" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D76" s="56"/>
+      <c r="D76" s="40"/>
     </row>
     <row r="77" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D77" s="56"/>
+      <c r="D77" s="40"/>
     </row>
     <row r="78" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D78" s="56"/>
+      <c r="D78" s="40"/>
     </row>
     <row r="79" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D79" s="56"/>
+      <c r="D79" s="40"/>
     </row>
     <row r="80" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D80" s="56"/>
+      <c r="D80" s="40"/>
     </row>
     <row r="81" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D81" s="56"/>
+      <c r="D81" s="40"/>
     </row>
     <row r="82" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D82" s="56"/>
+      <c r="D82" s="40"/>
     </row>
     <row r="83" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D83" s="56"/>
+      <c r="D83" s="40"/>
     </row>
     <row r="84" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D84" s="56"/>
+      <c r="D84" s="40"/>
     </row>
     <row r="85" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D85" s="56"/>
+      <c r="D85" s="40"/>
     </row>
     <row r="86" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D86" s="56"/>
+      <c r="D86" s="40"/>
     </row>
     <row r="87" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D87" s="56"/>
+      <c r="D87" s="40"/>
     </row>
     <row r="88" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D88" s="56"/>
+      <c r="D88" s="40"/>
     </row>
     <row r="89" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D89" s="56"/>
+      <c r="D89" s="40"/>
     </row>
     <row r="90" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D90" s="56"/>
+      <c r="D90" s="40"/>
     </row>
     <row r="91" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D91" s="56"/>
+      <c r="D91" s="40"/>
     </row>
     <row r="92" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D92" s="56"/>
+      <c r="D92" s="40"/>
     </row>
     <row r="93" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D93" s="56"/>
+      <c r="D93" s="40"/>
     </row>
     <row r="94" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D94" s="56"/>
+      <c r="D94" s="40"/>
     </row>
     <row r="95" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D95" s="56"/>
+      <c r="D95" s="40"/>
     </row>
     <row r="96" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D96" s="56"/>
+      <c r="D96" s="40"/>
     </row>
     <row r="97" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D97" s="56"/>
+      <c r="D97" s="40"/>
     </row>
     <row r="98" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D98" s="56"/>
+      <c r="D98" s="40"/>
     </row>
     <row r="99" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D99" s="56"/>
+      <c r="D99" s="40"/>
     </row>
     <row r="100" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D100" s="56"/>
+      <c r="D100" s="40"/>
     </row>
     <row r="101" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D101" s="56"/>
+      <c r="D101" s="40"/>
     </row>
     <row r="102" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D102" s="56"/>
+      <c r="D102" s="40"/>
     </row>
     <row r="103" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D103" s="56"/>
+      <c r="D103" s="40"/>
     </row>
     <row r="104" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D104" s="56"/>
+      <c r="D104" s="40"/>
     </row>
     <row r="105" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D105" s="56"/>
+      <c r="D105" s="40"/>
     </row>
     <row r="106" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D106" s="56"/>
+      <c r="D106" s="40"/>
     </row>
     <row r="107" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D107" s="56"/>
+      <c r="D107" s="40"/>
     </row>
     <row r="108" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D108" s="56"/>
+      <c r="D108" s="40"/>
     </row>
     <row r="109" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D109" s="56"/>
+      <c r="D109" s="40"/>
     </row>
     <row r="110" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D110" s="56"/>
+      <c r="D110" s="40"/>
     </row>
     <row r="111" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D111" s="56"/>
+      <c r="D111" s="40"/>
     </row>
     <row r="112" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D112" s="56"/>
+      <c r="D112" s="40"/>
     </row>
     <row r="113" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D113" s="56"/>
+      <c r="D113" s="40"/>
     </row>
     <row r="114" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D114" s="56"/>
+      <c r="D114" s="40"/>
     </row>
     <row r="115" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D115" s="56"/>
+      <c r="D115" s="40"/>
     </row>
     <row r="116" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D116" s="56"/>
+      <c r="D116" s="40"/>
     </row>
     <row r="117" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D117" s="56"/>
+      <c r="D117" s="40"/>
     </row>
     <row r="118" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D118" s="56"/>
+      <c r="D118" s="40"/>
     </row>
     <row r="119" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D119" s="56"/>
+      <c r="D119" s="40"/>
     </row>
     <row r="120" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D120" s="56"/>
+      <c r="D120" s="40"/>
     </row>
     <row r="121" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D121" s="56"/>
+      <c r="D121" s="40"/>
     </row>
     <row r="122" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D122" s="56"/>
+      <c r="D122" s="40"/>
     </row>
     <row r="123" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D123" s="56"/>
+      <c r="D123" s="40"/>
     </row>
     <row r="124" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D124" s="56"/>
+      <c r="D124" s="40"/>
     </row>
     <row r="125" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D125" s="56"/>
+      <c r="D125" s="40"/>
     </row>
     <row r="126" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D126" s="56"/>
+      <c r="D126" s="40"/>
     </row>
     <row r="127" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D127" s="56"/>
+      <c r="D127" s="40"/>
     </row>
     <row r="128" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D128" s="56"/>
+      <c r="D128" s="40"/>
     </row>
     <row r="129" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D129" s="56"/>
+      <c r="D129" s="40"/>
     </row>
     <row r="130" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D130" s="56"/>
+      <c r="D130" s="40"/>
     </row>
     <row r="131" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D131" s="56"/>
+      <c r="D131" s="40"/>
     </row>
     <row r="132" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D132" s="56"/>
+      <c r="D132" s="40"/>
     </row>
     <row r="133" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D133" s="56"/>
+      <c r="D133" s="40"/>
     </row>
     <row r="134" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D134" s="56"/>
+      <c r="D134" s="40"/>
     </row>
     <row r="135" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D135" s="56"/>
+      <c r="D135" s="40"/>
     </row>
     <row r="136" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D136" s="56"/>
+      <c r="D136" s="40"/>
     </row>
     <row r="137" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D137" s="56"/>
+      <c r="D137" s="40"/>
     </row>
     <row r="138" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D138" s="56"/>
+      <c r="D138" s="40"/>
     </row>
     <row r="139" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D139" s="56"/>
+      <c r="D139" s="40"/>
     </row>
     <row r="140" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D140" s="56"/>
+      <c r="D140" s="40"/>
     </row>
     <row r="141" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D141" s="56"/>
+      <c r="D141" s="40"/>
     </row>
     <row r="142" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D142" s="56"/>
+      <c r="D142" s="40"/>
     </row>
     <row r="143" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D143" s="56"/>
+      <c r="D143" s="40"/>
     </row>
     <row r="144" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D144" s="56"/>
+      <c r="D144" s="40"/>
     </row>
     <row r="145" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D145" s="56"/>
+      <c r="D145" s="40"/>
     </row>
     <row r="146" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D146" s="56"/>
+      <c r="D146" s="40"/>
     </row>
     <row r="147" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D147" s="56"/>
+      <c r="D147" s="40"/>
     </row>
     <row r="148" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D148" s="56"/>
+      <c r="D148" s="40"/>
     </row>
     <row r="149" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D149" s="56"/>
+      <c r="D149" s="40"/>
     </row>
     <row r="150" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D150" s="56"/>
+      <c r="D150" s="40"/>
     </row>
     <row r="151" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D151" s="56"/>
+      <c r="D151" s="40"/>
     </row>
     <row r="152" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D152" s="56"/>
+      <c r="D152" s="40"/>
     </row>
     <row r="153" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D153" s="56"/>
+      <c r="D153" s="40"/>
     </row>
     <row r="154" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D154" s="56"/>
+      <c r="D154" s="40"/>
     </row>
     <row r="155" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D155" s="56"/>
+      <c r="D155" s="40"/>
     </row>
     <row r="156" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D156" s="56"/>
+      <c r="D156" s="40"/>
     </row>
     <row r="157" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D157" s="56"/>
+      <c r="D157" s="40"/>
     </row>
     <row r="158" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D158" s="56"/>
+      <c r="D158" s="40"/>
     </row>
     <row r="159" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D159" s="56"/>
+      <c r="D159" s="40"/>
     </row>
     <row r="160" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D160" s="56"/>
+      <c r="D160" s="40"/>
     </row>
     <row r="161" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D161" s="56"/>
+      <c r="D161" s="40"/>
     </row>
     <row r="162" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D162" s="56"/>
+      <c r="D162" s="40"/>
     </row>
     <row r="163" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D163" s="56"/>
+      <c r="D163" s="40"/>
     </row>
     <row r="164" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D164" s="56"/>
+      <c r="D164" s="40"/>
     </row>
     <row r="165" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D165" s="56"/>
+      <c r="D165" s="40"/>
     </row>
     <row r="166" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D166" s="56"/>
+      <c r="D166" s="40"/>
     </row>
     <row r="167" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D167" s="56"/>
+      <c r="D167" s="40"/>
     </row>
     <row r="168" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D168" s="56"/>
+      <c r="D168" s="40"/>
     </row>
     <row r="169" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D169" s="56"/>
+      <c r="D169" s="40"/>
     </row>
     <row r="170" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D170" s="56"/>
+      <c r="D170" s="40"/>
     </row>
     <row r="171" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D171" s="56"/>
+      <c r="D171" s="40"/>
     </row>
     <row r="172" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D172" s="56"/>
+      <c r="D172" s="40"/>
     </row>
     <row r="173" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D173" s="56"/>
+      <c r="D173" s="40"/>
     </row>
     <row r="174" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D174" s="56"/>
+      <c r="D174" s="40"/>
     </row>
     <row r="175" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D175" s="56"/>
+      <c r="D175" s="40"/>
     </row>
     <row r="176" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D176" s="56"/>
+      <c r="D176" s="40"/>
     </row>
     <row r="177" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D177" s="56"/>
+      <c r="D177" s="40"/>
     </row>
     <row r="178" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D178" s="56"/>
+      <c r="D178" s="40"/>
     </row>
     <row r="179" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D179" s="56"/>
+      <c r="D179" s="40"/>
     </row>
     <row r="180" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D180" s="56"/>
+      <c r="D180" s="40"/>
     </row>
     <row r="181" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D181" s="56"/>
+      <c r="D181" s="40"/>
     </row>
     <row r="182" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D182" s="56"/>
+      <c r="D182" s="40"/>
     </row>
     <row r="183" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D183" s="56"/>
+      <c r="D183" s="40"/>
     </row>
     <row r="184" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D184" s="56"/>
+      <c r="D184" s="40"/>
     </row>
     <row r="185" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D185" s="56"/>
+      <c r="D185" s="40"/>
     </row>
     <row r="186" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D186" s="56"/>
+      <c r="D186" s="40"/>
     </row>
     <row r="187" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D187" s="56"/>
+      <c r="D187" s="40"/>
     </row>
     <row r="188" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D188" s="56"/>
+      <c r="D188" s="40"/>
     </row>
     <row r="189" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D189" s="56"/>
+      <c r="D189" s="40"/>
     </row>
     <row r="190" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D190" s="56"/>
+      <c r="D190" s="40"/>
     </row>
     <row r="191" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D191" s="56"/>
+      <c r="D191" s="40"/>
     </row>
     <row r="192" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D192" s="56"/>
+      <c r="D192" s="40"/>
     </row>
     <row r="193" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D193" s="56"/>
+      <c r="D193" s="40"/>
     </row>
     <row r="194" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D194" s="56"/>
+      <c r="D194" s="40"/>
     </row>
     <row r="195" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D195" s="56"/>
+      <c r="D195" s="40"/>
     </row>
     <row r="196" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D196" s="56"/>
+      <c r="D196" s="40"/>
     </row>
     <row r="197" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D197" s="56"/>
+      <c r="D197" s="40"/>
     </row>
     <row r="198" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D198" s="56"/>
+      <c r="D198" s="40"/>
     </row>
     <row r="199" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D199" s="56"/>
+      <c r="D199" s="40"/>
     </row>
     <row r="200" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D200" s="56"/>
+      <c r="D200" s="40"/>
     </row>
     <row r="201" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D201" s="56"/>
+      <c r="D201" s="40"/>
     </row>
     <row r="202" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D202" s="56"/>
+      <c r="D202" s="40"/>
     </row>
     <row r="203" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D203" s="56"/>
+      <c r="D203" s="40"/>
     </row>
     <row r="204" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D204" s="56"/>
+      <c r="D204" s="40"/>
     </row>
     <row r="205" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D205" s="56"/>
+      <c r="D205" s="40"/>
     </row>
     <row r="206" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D206" s="56"/>
+      <c r="D206" s="40"/>
     </row>
     <row r="207" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D207" s="56"/>
+      <c r="D207" s="40"/>
     </row>
     <row r="208" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D208" s="56"/>
+      <c r="D208" s="40"/>
     </row>
     <row r="209" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D209" s="56"/>
+      <c r="D209" s="40"/>
     </row>
     <row r="210" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D210" s="56"/>
+      <c r="D210" s="40"/>
     </row>
     <row r="211" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D211" s="56"/>
+      <c r="D211" s="40"/>
     </row>
     <row r="212" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D212" s="56"/>
+      <c r="D212" s="40"/>
     </row>
     <row r="213" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D213" s="56"/>
+      <c r="D213" s="40"/>
     </row>
     <row r="214" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D214" s="56"/>
+      <c r="D214" s="40"/>
     </row>
     <row r="215" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D215" s="56"/>
+      <c r="D215" s="40"/>
     </row>
     <row r="216" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D216" s="56"/>
+      <c r="D216" s="40"/>
     </row>
     <row r="217" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D217" s="56"/>
+      <c r="D217" s="40"/>
     </row>
     <row r="218" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D218" s="56"/>
+      <c r="D218" s="40"/>
     </row>
     <row r="219" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D219" s="56"/>
+      <c r="D219" s="40"/>
     </row>
     <row r="220" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D220" s="56"/>
+      <c r="D220" s="40"/>
     </row>
     <row r="221" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D221" s="56"/>
+      <c r="D221" s="40"/>
     </row>
     <row r="222" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D222" s="56"/>
+      <c r="D222" s="40"/>
     </row>
     <row r="223" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D223" s="56"/>
+      <c r="D223" s="40"/>
     </row>
     <row r="224" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D224" s="56"/>
+      <c r="D224" s="40"/>
     </row>
     <row r="225" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D225" s="56"/>
+      <c r="D225" s="40"/>
     </row>
     <row r="226" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D226" s="56"/>
+      <c r="D226" s="40"/>
     </row>
     <row r="227" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D227" s="56"/>
+      <c r="D227" s="40"/>
     </row>
     <row r="228" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D228" s="56"/>
+      <c r="D228" s="40"/>
     </row>
     <row r="229" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D229" s="56"/>
+      <c r="D229" s="40"/>
     </row>
     <row r="230" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D230" s="56"/>
+      <c r="D230" s="40"/>
     </row>
     <row r="231" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D231" s="56"/>
+      <c r="D231" s="40"/>
     </row>
     <row r="232" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D232" s="56"/>
+      <c r="D232" s="40"/>
     </row>
     <row r="233" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D233" s="56"/>
+      <c r="D233" s="40"/>
     </row>
     <row r="234" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D234" s="56"/>
+      <c r="D234" s="40"/>
     </row>
     <row r="235" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D235" s="56"/>
+      <c r="D235" s="40"/>
     </row>
     <row r="236" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D236" s="56"/>
+      <c r="D236" s="40"/>
     </row>
     <row r="237" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D237" s="56"/>
+      <c r="D237" s="40"/>
     </row>
     <row r="238" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D238" s="56"/>
+      <c r="D238" s="40"/>
     </row>
     <row r="239" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D239" s="56"/>
+      <c r="D239" s="40"/>
     </row>
     <row r="240" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D240" s="56"/>
+      <c r="D240" s="40"/>
     </row>
     <row r="241" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D241" s="56"/>
+      <c r="D241" s="40"/>
     </row>
     <row r="242" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D242" s="56"/>
+      <c r="D242" s="40"/>
     </row>
     <row r="243" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D243" s="56"/>
+      <c r="D243" s="40"/>
     </row>
     <row r="244" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D244" s="56"/>
+      <c r="D244" s="40"/>
     </row>
     <row r="245" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D245" s="56"/>
+      <c r="D245" s="40"/>
     </row>
     <row r="246" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D246" s="56"/>
+      <c r="D246" s="40"/>
     </row>
     <row r="247" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D247" s="56"/>
+      <c r="D247" s="40"/>
     </row>
     <row r="248" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D248" s="56"/>
+      <c r="D248" s="40"/>
     </row>
     <row r="249" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D249" s="56"/>
+      <c r="D249" s="40"/>
     </row>
     <row r="250" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D250" s="56"/>
+      <c r="D250" s="40"/>
     </row>
     <row r="251" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D251" s="56"/>
+      <c r="D251" s="40"/>
     </row>
     <row r="252" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D252" s="56"/>
+      <c r="D252" s="40"/>
     </row>
     <row r="253" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D253" s="56"/>
+      <c r="D253" s="40"/>
     </row>
     <row r="254" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D254" s="56"/>
+      <c r="D254" s="40"/>
     </row>
     <row r="255" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D255" s="56"/>
+      <c r="D255" s="40"/>
     </row>
     <row r="256" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D256" s="56"/>
+      <c r="D256" s="40"/>
     </row>
     <row r="257" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D257" s="56"/>
+      <c r="D257" s="40"/>
     </row>
     <row r="258" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D258" s="56"/>
+      <c r="D258" s="40"/>
     </row>
     <row r="259" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D259" s="56"/>
+      <c r="D259" s="40"/>
     </row>
     <row r="260" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D260" s="56"/>
+      <c r="D260" s="40"/>
     </row>
     <row r="261" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D261" s="56"/>
+      <c r="D261" s="40"/>
     </row>
     <row r="262" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D262" s="56"/>
+      <c r="D262" s="40"/>
     </row>
     <row r="263" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D263" s="56"/>
+      <c r="D263" s="40"/>
     </row>
     <row r="264" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D264" s="56"/>
+      <c r="D264" s="40"/>
     </row>
     <row r="265" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D265" s="56"/>
+      <c r="D265" s="40"/>
     </row>
     <row r="266" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D266" s="56"/>
+      <c r="D266" s="40"/>
     </row>
     <row r="267" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D267" s="56"/>
+      <c r="D267" s="40"/>
     </row>
     <row r="268" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D268" s="56"/>
+      <c r="D268" s="40"/>
     </row>
     <row r="269" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D269" s="56"/>
+      <c r="D269" s="40"/>
     </row>
     <row r="270" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D270" s="56"/>
+      <c r="D270" s="40"/>
     </row>
     <row r="271" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D271" s="56"/>
+      <c r="D271" s="40"/>
     </row>
     <row r="272" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D272" s="56"/>
+      <c r="D272" s="40"/>
     </row>
     <row r="273" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D273" s="56"/>
+      <c r="D273" s="40"/>
     </row>
     <row r="274" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D274" s="56"/>
+      <c r="D274" s="40"/>
     </row>
     <row r="275" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D275" s="56"/>
+      <c r="D275" s="40"/>
     </row>
     <row r="276" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D276" s="56"/>
+      <c r="D276" s="40"/>
     </row>
     <row r="277" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D277" s="56"/>
+      <c r="D277" s="40"/>
     </row>
     <row r="278" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D278" s="56"/>
+      <c r="D278" s="40"/>
     </row>
     <row r="279" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D279" s="56"/>
+      <c r="D279" s="40"/>
     </row>
     <row r="280" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D280" s="56"/>
+      <c r="D280" s="40"/>
     </row>
     <row r="281" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D281" s="56"/>
+      <c r="D281" s="40"/>
     </row>
     <row r="282" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D282" s="56"/>
+      <c r="D282" s="40"/>
     </row>
     <row r="283" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D283" s="56"/>
+      <c r="D283" s="40"/>
     </row>
     <row r="284" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D284" s="56"/>
+      <c r="D284" s="40"/>
     </row>
     <row r="285" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D285" s="56"/>
+      <c r="D285" s="40"/>
     </row>
     <row r="286" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D286" s="56"/>
+      <c r="D286" s="40"/>
     </row>
     <row r="287" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D287" s="56"/>
+      <c r="D287" s="40"/>
     </row>
     <row r="288" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D288" s="56"/>
+      <c r="D288" s="40"/>
     </row>
     <row r="289" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D289" s="56"/>
+      <c r="D289" s="40"/>
     </row>
     <row r="290" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D290" s="56"/>
+      <c r="D290" s="40"/>
     </row>
     <row r="291" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D291" s="56"/>
+      <c r="D291" s="40"/>
     </row>
     <row r="292" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D292" s="56"/>
+      <c r="D292" s="40"/>
     </row>
     <row r="293" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D293" s="56"/>
+      <c r="D293" s="40"/>
     </row>
     <row r="294" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D294" s="56"/>
+      <c r="D294" s="40"/>
     </row>
     <row r="295" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D295" s="56"/>
+      <c r="D295" s="40"/>
     </row>
     <row r="296" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D296" s="56"/>
+      <c r="D296" s="40"/>
     </row>
     <row r="297" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D297" s="56"/>
+      <c r="D297" s="40"/>
     </row>
     <row r="298" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D298" s="56"/>
+      <c r="D298" s="40"/>
     </row>
     <row r="299" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D299" s="56"/>
+      <c r="D299" s="40"/>
     </row>
     <row r="300" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D300" s="56"/>
+      <c r="D300" s="40"/>
     </row>
     <row r="301" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D301" s="56"/>
+      <c r="D301" s="40"/>
     </row>
     <row r="302" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D302" s="56"/>
+      <c r="D302" s="40"/>
     </row>
     <row r="303" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D303" s="56"/>
+      <c r="D303" s="40"/>
     </row>
     <row r="304" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D304" s="56"/>
+      <c r="D304" s="40"/>
     </row>
     <row r="305" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D305" s="56"/>
+      <c r="D305" s="40"/>
     </row>
     <row r="306" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D306" s="56"/>
+      <c r="D306" s="40"/>
     </row>
     <row r="307" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D307" s="56"/>
+      <c r="D307" s="40"/>
     </row>
     <row r="308" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D308" s="56"/>
+      <c r="D308" s="40"/>
     </row>
     <row r="309" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D309" s="56"/>
+      <c r="D309" s="40"/>
     </row>
     <row r="310" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D310" s="56"/>
+      <c r="D310" s="40"/>
     </row>
     <row r="311" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D311" s="56"/>
+      <c r="D311" s="40"/>
     </row>
     <row r="312" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D312" s="56"/>
+      <c r="D312" s="40"/>
     </row>
     <row r="313" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D313" s="56"/>
+      <c r="D313" s="40"/>
     </row>
     <row r="314" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D314" s="56"/>
+      <c r="D314" s="40"/>
     </row>
     <row r="315" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D315" s="56"/>
+      <c r="D315" s="40"/>
     </row>
     <row r="316" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D316" s="56"/>
+      <c r="D316" s="40"/>
     </row>
     <row r="317" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D317" s="56"/>
+      <c r="D317" s="40"/>
     </row>
     <row r="318" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D318" s="56"/>
+      <c r="D318" s="40"/>
     </row>
     <row r="319" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D319" s="56"/>
+      <c r="D319" s="40"/>
     </row>
     <row r="320" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D320" s="56"/>
+      <c r="D320" s="40"/>
     </row>
     <row r="321" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D321" s="56"/>
+      <c r="D321" s="40"/>
     </row>
     <row r="322" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D322" s="56"/>
+      <c r="D322" s="40"/>
     </row>
     <row r="323" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D323" s="56"/>
+      <c r="D323" s="40"/>
     </row>
     <row r="324" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D324" s="56"/>
+      <c r="D324" s="40"/>
     </row>
     <row r="325" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D325" s="56"/>
+      <c r="D325" s="40"/>
     </row>
     <row r="326" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D326" s="56"/>
+      <c r="D326" s="40"/>
     </row>
     <row r="327" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D327" s="56"/>
+      <c r="D327" s="40"/>
     </row>
     <row r="328" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D328" s="56"/>
+      <c r="D328" s="40"/>
     </row>
     <row r="329" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D329" s="56"/>
+      <c r="D329" s="40"/>
     </row>
     <row r="330" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D330" s="56"/>
+      <c r="D330" s="40"/>
     </row>
     <row r="331" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D331" s="56"/>
+      <c r="D331" s="40"/>
     </row>
     <row r="332" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D332" s="56"/>
+      <c r="D332" s="40"/>
     </row>
     <row r="333" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D333" s="56"/>
+      <c r="D333" s="40"/>
     </row>
     <row r="334" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D334" s="56"/>
+      <c r="D334" s="40"/>
     </row>
     <row r="335" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D335" s="56"/>
+      <c r="D335" s="40"/>
     </row>
     <row r="336" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D336" s="56"/>
+      <c r="D336" s="40"/>
     </row>
     <row r="337" ht="15" x14ac:dyDescent="0.25"/>
     <row r="338" ht="15" x14ac:dyDescent="0.25"/>
     <row r="339" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D20:D22"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D14:D16"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3889,8 +3932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6B0F65-C746-424A-8F79-B872BB8F9443}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3904,16 +3947,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="F1" s="43" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="F1" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="43"/>
+      <c r="G1" s="58"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
@@ -3939,18 +3982,18 @@
       <c r="A3" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="61">
+      <c r="B3" s="45">
         <f>F3</f>
         <v>21</v>
       </c>
-      <c r="C3" s="61">
+      <c r="C3" s="45">
         <f>F3</f>
         <v>21</v>
       </c>
-      <c r="D3" s="62">
+      <c r="D3" s="46">
         <v>44119</v>
       </c>
-      <c r="F3" s="60">
+      <c r="F3" s="44">
         <f>COUNTA(Sprints!B3:B23)</f>
         <v>21</v>
       </c>
@@ -3968,7 +4011,7 @@
         <v>18.375</v>
       </c>
       <c r="C4" s="30"/>
-      <c r="D4" s="47">
+      <c r="D4" s="37">
         <f>Sprints!D3</f>
         <v>44121</v>
       </c>
@@ -3982,8 +4025,8 @@
         <v>15.75</v>
       </c>
       <c r="C5" s="30"/>
-      <c r="D5" s="47">
-        <f>Sprints!D6</f>
+      <c r="D5" s="37">
+        <f>Sprints!D5</f>
         <v>44123</v>
       </c>
     </row>
@@ -3996,8 +4039,8 @@
         <v>13.125</v>
       </c>
       <c r="C6" s="30"/>
-      <c r="D6" s="47">
-        <f>Sprints!D9</f>
+      <c r="D6" s="37">
+        <f>Sprints!D8</f>
         <v>44125</v>
       </c>
     </row>
@@ -4010,8 +4053,8 @@
         <v>10.5</v>
       </c>
       <c r="C7" s="30"/>
-      <c r="D7" s="47">
-        <f>Sprints!D12</f>
+      <c r="D7" s="37">
+        <f>Sprints!D11</f>
         <v>44127</v>
       </c>
     </row>
@@ -4024,8 +4067,8 @@
         <v>7.875</v>
       </c>
       <c r="C8" s="30"/>
-      <c r="D8" s="47">
-        <f>Sprints!D15</f>
+      <c r="D8" s="37">
+        <f>Sprints!D14</f>
         <v>44129</v>
       </c>
     </row>
@@ -4038,8 +4081,8 @@
         <v>5.25</v>
       </c>
       <c r="C9" s="30"/>
-      <c r="D9" s="47">
-        <f>Sprints!D18</f>
+      <c r="D9" s="37">
+        <f>Sprints!D17</f>
         <v>44131</v>
       </c>
     </row>
@@ -4052,8 +4095,8 @@
         <v>2.625</v>
       </c>
       <c r="C10" s="30"/>
-      <c r="D10" s="47">
-        <f>Sprints!D21</f>
+      <c r="D10" s="37">
+        <f>Sprints!D20</f>
         <v>44133</v>
       </c>
     </row>
@@ -4066,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="30"/>
-      <c r="D11" s="47">
+      <c r="D11" s="37">
         <f>Sprints!D23</f>
         <v>44135</v>
       </c>
@@ -4076,25 +4119,25 @@
       <c r="A13" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="63">
+      <c r="B13" s="60">
         <v>43997</v>
       </c>
-      <c r="C13" s="64"/>
+      <c r="C13" s="61"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="64"/>
+      <c r="C14" s="61"/>
     </row>
     <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="44"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="34"/>
     </row>
   </sheetData>

--- a/analise/Gerenciamento.xlsx
+++ b/analise/Gerenciamento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\TCC\analise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DF9529-B783-421F-89EB-3723E940A5A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CD2BF1-0B67-4997-9C6F-63AF2F133902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requisitos" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="109">
   <si>
     <t>Modulo</t>
   </si>
@@ -104,12 +104,6 @@
     <t>Administrador</t>
   </si>
   <si>
-    <t>Remover Funcionario</t>
-  </si>
-  <si>
-    <t>Os funcionario administradores ponderam remover os funcionario cadastrados no sistema.</t>
-  </si>
-  <si>
     <t>Funcionário</t>
   </si>
   <si>
@@ -227,27 +221,12 @@
     <t>Dia 0</t>
   </si>
   <si>
-    <t>Dia 1</t>
-  </si>
-  <si>
-    <t>Dia 2</t>
-  </si>
-  <si>
     <t>Dia 3</t>
   </si>
   <si>
-    <t>Dia 4</t>
-  </si>
-  <si>
-    <t>Dia 5</t>
-  </si>
-  <si>
     <t>Dia 6</t>
   </si>
   <si>
-    <t>Dia 7</t>
-  </si>
-  <si>
     <t>Dia 8</t>
   </si>
   <si>
@@ -275,15 +254,9 @@
     <t>Sprints</t>
   </si>
   <si>
-    <t>31/06/2020</t>
-  </si>
-  <si>
     <t>Revisão</t>
   </si>
   <si>
-    <t>Revisar todos os as sprints do sistema</t>
-  </si>
-  <si>
     <t>Todos</t>
   </si>
   <si>
@@ -296,18 +269,9 @@
     <t>Dia</t>
   </si>
   <si>
-    <t>Nome Atividade</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>Inserir Anúncio</t>
-  </si>
-  <si>
     <t>Cadastrar Funcionario</t>
   </si>
   <si>
@@ -317,9 +281,6 @@
     <t>Finalizar Comprar</t>
   </si>
   <si>
-    <t>Cancelar conta</t>
-  </si>
-  <si>
     <t>Devolução</t>
   </si>
   <si>
@@ -341,7 +302,64 @@
     <t>Favoritos</t>
   </si>
   <si>
-    <t xml:space="preserve">Perfil/Endereço </t>
+    <t>Completo</t>
+  </si>
+  <si>
+    <t>Em Andamento</t>
+  </si>
+  <si>
+    <t>Pedro e Rebecca</t>
+  </si>
+  <si>
+    <t>Request, Response e Conversores Padrões das tabelas</t>
+  </si>
+  <si>
+    <t>Tela de Login</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Controller - Inicio</t>
+  </si>
+  <si>
+    <t>Mostrar Livro</t>
+  </si>
+  <si>
+    <t>Endereco</t>
+  </si>
+  <si>
+    <t>Perfil</t>
+  </si>
+  <si>
+    <t>Acompanha Pedido</t>
+  </si>
+  <si>
+    <t>Rebecca e Ramon</t>
+  </si>
+  <si>
+    <t>Dia 10</t>
+  </si>
+  <si>
+    <t>Dia 12</t>
+  </si>
+  <si>
+    <t>Dia 14</t>
+  </si>
+  <si>
+    <t>Dia 16</t>
+  </si>
+  <si>
+    <t>Dia 18</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Alterar Dados</t>
+  </si>
+  <si>
+    <t>Cliente deve poder realizar a alteração de seus dados cadastrais</t>
   </si>
 </sst>
 </file>
@@ -699,7 +717,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -795,12 +813,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -827,15 +839,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -859,6 +871,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1005,28 +1020,28 @@
                   <c:v>Dia 0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Dia 1</c:v>
+                  <c:v>Dia 3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Dia 2</c:v>
+                  <c:v>Dia 6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Dia 3</c:v>
+                  <c:v>Dia 8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Dia 4</c:v>
+                  <c:v>Dia 10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Dia 5</c:v>
+                  <c:v>Dia 12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Dia 6</c:v>
+                  <c:v>Dia 14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Dia 7</c:v>
+                  <c:v>Dia 16</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Dia 8</c:v>
+                  <c:v>Dia 18</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1038,28 +1053,28 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.375</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.75</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.125</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.5</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.875</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.25</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.625</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1104,28 +1119,28 @@
                   <c:v>Dia 0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Dia 1</c:v>
+                  <c:v>Dia 3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Dia 2</c:v>
+                  <c:v>Dia 6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Dia 3</c:v>
+                  <c:v>Dia 8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Dia 4</c:v>
+                  <c:v>Dia 10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Dia 5</c:v>
+                  <c:v>Dia 12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Dia 6</c:v>
+                  <c:v>Dia 14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Dia 7</c:v>
+                  <c:v>Dia 16</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Dia 8</c:v>
+                  <c:v>Dia 18</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1137,6 +1152,9 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
@@ -2194,8 +2212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2233,7 +2251,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -2254,7 +2272,7 @@
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
@@ -2273,9 +2291,9 @@
       <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>11</v>
@@ -2292,7 +2310,7 @@
       <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="18" t="s">
         <v>21</v>
       </c>
@@ -2310,19 +2328,19 @@
       </c>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="45"/>
       <c r="B6" s="18" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="F6" s="11">
         <v>0</v>
@@ -2330,11 +2348,11 @@
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="47" t="s">
-        <v>27</v>
+      <c r="A7" s="45" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>8</v>
@@ -2343,7 +2361,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F7" s="11">
         <v>0</v>
@@ -2351,9 +2369,9 @@
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>10</v>
@@ -2362,7 +2380,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F8" s="11">
         <v>0</v>
@@ -2370,9 +2388,9 @@
       <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>11</v>
@@ -2381,7 +2399,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F9" s="11">
         <v>0</v>
@@ -2389,9 +2407,9 @@
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>12</v>
@@ -2400,7 +2418,7 @@
         <v>16</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" s="11">
         <v>0</v>
@@ -2408,18 +2426,18 @@
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F11" s="11">
         <v>0</v>
@@ -2427,11 +2445,11 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47" t="s">
-        <v>38</v>
+      <c r="A12" s="45" t="s">
+        <v>36</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>8</v>
@@ -2440,7 +2458,7 @@
         <v>16</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F12" s="11">
         <v>0</v>
@@ -2448,9 +2466,9 @@
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>10</v>
@@ -2459,7 +2477,7 @@
         <v>16</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F13" s="11">
         <v>0</v>
@@ -2467,9 +2485,9 @@
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>11</v>
@@ -2478,7 +2496,7 @@
         <v>16</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F14" s="11">
         <v>0</v>
@@ -2486,9 +2504,9 @@
       <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>12</v>
@@ -2497,7 +2515,7 @@
         <v>16</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F15" s="11">
         <v>0</v>
@@ -2505,9 +2523,9 @@
       <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>13</v>
@@ -2516,7 +2534,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F16" s="11">
         <v>0</v>
@@ -2524,9 +2542,9 @@
       <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>14</v>
@@ -2535,7 +2553,7 @@
         <v>16</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F17" s="11">
         <v>0</v>
@@ -2543,11 +2561,11 @@
       <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="47" t="s">
-        <v>53</v>
+      <c r="A18" s="45" t="s">
+        <v>51</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>8</v>
@@ -2556,7 +2574,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F18" s="11">
         <v>0</v>
@@ -2564,9 +2582,9 @@
       <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="47"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>10</v>
@@ -2575,7 +2593,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F19" s="11">
         <v>0</v>
@@ -2583,9 +2601,9 @@
       <c r="G19" s="12"/>
     </row>
     <row r="20" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>11</v>
@@ -2594,7 +2612,7 @@
         <v>16</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F20" s="11">
         <v>0</v>
@@ -2602,44 +2620,44 @@
       <c r="G20" s="12"/>
     </row>
     <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="51"/>
+      <c r="A21" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="49"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="24"/>
       <c r="B23" s="23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="25"/>
       <c r="B24" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="26"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="49"/>
+      <c r="B26" s="47"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="27">
         <v>0</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -2647,7 +2665,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -2655,7 +2673,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2728,1200 +2746,1223 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3E3989-44EE-421D-BBD1-34EC265F0F69}">
-  <dimension ref="A1:F340"/>
+  <dimension ref="A1:E337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" thickBottom="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.85546875" style="36" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.42578125" style="36" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="55">
+        <v>1</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="50">
+        <v>44121</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="51"/>
+      <c r="B4" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="53"/>
+      <c r="D4" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="51"/>
+      <c r="B5" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="53"/>
+      <c r="D5" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="55">
+        <v>2</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="50">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="51"/>
+      <c r="B7" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="51"/>
+    </row>
+    <row r="8" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="52"/>
+      <c r="B8" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="52"/>
+    </row>
+    <row r="9" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="55">
+        <v>3</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="50">
+        <v>44126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="51"/>
+      <c r="B10" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="35" t="s">
+      <c r="C10" s="51"/>
+    </row>
+    <row r="11" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="52"/>
+      <c r="B11" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="52"/>
+    </row>
+    <row r="12" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="55">
         <v>4</v>
       </c>
-      <c r="D2" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="35" t="s">
+      <c r="B12" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="50">
+        <v>44128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="51"/>
+      <c r="B13" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="51"/>
+    </row>
+    <row r="14" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="52"/>
+      <c r="B14" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="52"/>
+    </row>
+    <row r="15" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="55">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57">
-        <v>1</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="52">
-        <v>44121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
-      <c r="B4" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="53"/>
-    </row>
-    <row r="5" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="57">
-        <v>2</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="52">
-        <v>44123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
-      <c r="B6" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="54"/>
-    </row>
-    <row r="7" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
-      <c r="B7" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="55"/>
-    </row>
-    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="57">
-        <v>3</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="52">
-        <v>44125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
-      <c r="B9" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="54"/>
-    </row>
-    <row r="10" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="55"/>
-      <c r="B10" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="55"/>
-    </row>
-    <row r="11" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="57">
-        <v>4</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="52">
-        <v>44127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="54"/>
-      <c r="B12" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="54"/>
-    </row>
-    <row r="13" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="55"/>
-      <c r="B13" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="55"/>
-    </row>
-    <row r="14" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="57">
-        <v>5</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="52">
-        <v>44129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="54"/>
       <c r="B15" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="54"/>
-    </row>
-    <row r="16" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="55"/>
+        <v>97</v>
+      </c>
+      <c r="C15" s="50">
+        <v>44130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="51"/>
       <c r="B16" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="55"/>
-    </row>
-    <row r="17" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="57">
+      <c r="C16" s="51"/>
+    </row>
+    <row r="17" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="52"/>
+      <c r="B17" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="52"/>
+    </row>
+    <row r="18" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="55">
         <v>6</v>
       </c>
-      <c r="B17" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="52">
-        <v>44131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
       <c r="B18" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="54"/>
-    </row>
-    <row r="19" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="55"/>
-      <c r="B19" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="50">
+        <v>44132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="51"/>
+      <c r="B19" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="51"/>
+    </row>
+    <row r="20" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="52"/>
+      <c r="B20" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="52"/>
+    </row>
+    <row r="21" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="55">
+        <v>7</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="50">
+        <v>44134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="51"/>
+      <c r="B22" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="51"/>
+    </row>
+    <row r="23" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="52"/>
+      <c r="B23" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="55"/>
-    </row>
-    <row r="20" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="57">
-        <v>7</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="52">
-        <v>44133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="54"/>
-      <c r="B21" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="53"/>
-    </row>
-    <row r="22" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="55"/>
-      <c r="B22" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="55"/>
-    </row>
-    <row r="23" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="41">
+      <c r="C23" s="52"/>
+    </row>
+    <row r="24" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="55">
         <v>8</v>
       </c>
-      <c r="B23" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="36" t="s">
+      <c r="B24" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="42">
-        <v>44135</v>
-      </c>
-      <c r="E23" s="38" t="s">
+      <c r="C24" s="50">
+        <v>44136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="51"/>
+      <c r="B25" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="40"/>
-    </row>
-    <row r="25" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="40"/>
-    </row>
-    <row r="26" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="40"/>
-    </row>
-    <row r="27" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="40"/>
-    </row>
-    <row r="28" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="40"/>
-    </row>
-    <row r="29" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="40"/>
-    </row>
-    <row r="30" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="40"/>
-    </row>
-    <row r="31" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="40"/>
-    </row>
-    <row r="32" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="40"/>
-    </row>
-    <row r="33" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="40"/>
-    </row>
-    <row r="34" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="40"/>
-    </row>
-    <row r="35" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="40"/>
-    </row>
-    <row r="36" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="40"/>
-    </row>
-    <row r="37" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="40"/>
-    </row>
-    <row r="38" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="40"/>
-    </row>
-    <row r="39" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="40"/>
-    </row>
-    <row r="40" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D40" s="40"/>
-    </row>
-    <row r="41" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="40"/>
-    </row>
-    <row r="42" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D42" s="40"/>
-    </row>
-    <row r="43" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="40"/>
-    </row>
-    <row r="44" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D44" s="40"/>
-    </row>
-    <row r="45" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="40"/>
-    </row>
-    <row r="46" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D46" s="40"/>
-    </row>
-    <row r="47" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D47" s="40"/>
-    </row>
-    <row r="48" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D48" s="40"/>
-    </row>
-    <row r="49" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D49" s="40"/>
-    </row>
-    <row r="50" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="40"/>
-    </row>
-    <row r="51" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D51" s="40"/>
-    </row>
-    <row r="52" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D52" s="40"/>
-    </row>
-    <row r="53" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="40"/>
-    </row>
-    <row r="54" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D54" s="40"/>
-    </row>
-    <row r="55" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D55" s="40"/>
-    </row>
-    <row r="56" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D56" s="40"/>
-    </row>
-    <row r="57" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D57" s="40"/>
-    </row>
-    <row r="58" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D58" s="40"/>
-    </row>
-    <row r="59" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D59" s="40"/>
-    </row>
-    <row r="60" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="40"/>
-    </row>
-    <row r="61" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D61" s="40"/>
-    </row>
-    <row r="62" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D62" s="40"/>
-    </row>
-    <row r="63" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D63" s="40"/>
-    </row>
-    <row r="64" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D64" s="40"/>
-    </row>
-    <row r="65" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="40"/>
-    </row>
-    <row r="66" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D66" s="40"/>
-    </row>
-    <row r="67" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D67" s="40"/>
-    </row>
-    <row r="68" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D68" s="40"/>
-    </row>
-    <row r="69" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D69" s="40"/>
-    </row>
-    <row r="70" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D70" s="40"/>
-    </row>
-    <row r="71" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D71" s="40"/>
-    </row>
-    <row r="72" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D72" s="40"/>
-    </row>
-    <row r="73" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D73" s="40"/>
-    </row>
-    <row r="74" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D74" s="40"/>
-    </row>
-    <row r="75" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D75" s="40"/>
-    </row>
-    <row r="76" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D76" s="40"/>
-    </row>
-    <row r="77" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D77" s="40"/>
-    </row>
-    <row r="78" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D78" s="40"/>
-    </row>
-    <row r="79" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D79" s="40"/>
-    </row>
-    <row r="80" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D80" s="40"/>
-    </row>
-    <row r="81" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D81" s="40"/>
-    </row>
-    <row r="82" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D82" s="40"/>
-    </row>
-    <row r="83" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D83" s="40"/>
-    </row>
-    <row r="84" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D84" s="40"/>
-    </row>
-    <row r="85" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D85" s="40"/>
-    </row>
-    <row r="86" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D86" s="40"/>
-    </row>
-    <row r="87" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D87" s="40"/>
-    </row>
-    <row r="88" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D88" s="40"/>
-    </row>
-    <row r="89" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D89" s="40"/>
-    </row>
-    <row r="90" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D90" s="40"/>
-    </row>
-    <row r="91" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D91" s="40"/>
-    </row>
-    <row r="92" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D92" s="40"/>
-    </row>
-    <row r="93" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D93" s="40"/>
-    </row>
-    <row r="94" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D94" s="40"/>
-    </row>
-    <row r="95" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D95" s="40"/>
-    </row>
-    <row r="96" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D96" s="40"/>
-    </row>
-    <row r="97" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D97" s="40"/>
-    </row>
-    <row r="98" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D98" s="40"/>
-    </row>
-    <row r="99" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D99" s="40"/>
-    </row>
-    <row r="100" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D100" s="40"/>
-    </row>
-    <row r="101" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D101" s="40"/>
-    </row>
-    <row r="102" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D102" s="40"/>
-    </row>
-    <row r="103" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D103" s="40"/>
-    </row>
-    <row r="104" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D104" s="40"/>
-    </row>
-    <row r="105" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D105" s="40"/>
-    </row>
-    <row r="106" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D106" s="40"/>
-    </row>
-    <row r="107" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D107" s="40"/>
-    </row>
-    <row r="108" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D108" s="40"/>
-    </row>
-    <row r="109" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D109" s="40"/>
-    </row>
-    <row r="110" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D110" s="40"/>
-    </row>
-    <row r="111" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D111" s="40"/>
-    </row>
-    <row r="112" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D112" s="40"/>
-    </row>
-    <row r="113" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D113" s="40"/>
-    </row>
-    <row r="114" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D114" s="40"/>
-    </row>
-    <row r="115" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D115" s="40"/>
-    </row>
-    <row r="116" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D116" s="40"/>
-    </row>
-    <row r="117" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D117" s="40"/>
-    </row>
-    <row r="118" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D118" s="40"/>
-    </row>
-    <row r="119" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D119" s="40"/>
-    </row>
-    <row r="120" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D120" s="40"/>
-    </row>
-    <row r="121" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D121" s="40"/>
-    </row>
-    <row r="122" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D122" s="40"/>
-    </row>
-    <row r="123" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D123" s="40"/>
-    </row>
-    <row r="124" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D124" s="40"/>
-    </row>
-    <row r="125" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D125" s="40"/>
-    </row>
-    <row r="126" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D126" s="40"/>
-    </row>
-    <row r="127" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D127" s="40"/>
-    </row>
-    <row r="128" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D128" s="40"/>
-    </row>
-    <row r="129" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D129" s="40"/>
-    </row>
-    <row r="130" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D130" s="40"/>
-    </row>
-    <row r="131" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D131" s="40"/>
-    </row>
-    <row r="132" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D132" s="40"/>
-    </row>
-    <row r="133" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D133" s="40"/>
-    </row>
-    <row r="134" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D134" s="40"/>
-    </row>
-    <row r="135" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D135" s="40"/>
-    </row>
-    <row r="136" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D136" s="40"/>
-    </row>
-    <row r="137" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D137" s="40"/>
-    </row>
-    <row r="138" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D138" s="40"/>
-    </row>
-    <row r="139" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D139" s="40"/>
-    </row>
-    <row r="140" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D140" s="40"/>
-    </row>
-    <row r="141" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D141" s="40"/>
-    </row>
-    <row r="142" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D142" s="40"/>
-    </row>
-    <row r="143" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D143" s="40"/>
-    </row>
-    <row r="144" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D144" s="40"/>
-    </row>
-    <row r="145" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D145" s="40"/>
-    </row>
-    <row r="146" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D146" s="40"/>
-    </row>
-    <row r="147" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D147" s="40"/>
-    </row>
-    <row r="148" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D148" s="40"/>
-    </row>
-    <row r="149" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D149" s="40"/>
-    </row>
-    <row r="150" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D150" s="40"/>
-    </row>
-    <row r="151" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D151" s="40"/>
-    </row>
-    <row r="152" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D152" s="40"/>
-    </row>
-    <row r="153" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D153" s="40"/>
-    </row>
-    <row r="154" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D154" s="40"/>
-    </row>
-    <row r="155" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D155" s="40"/>
-    </row>
-    <row r="156" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D156" s="40"/>
-    </row>
-    <row r="157" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D157" s="40"/>
-    </row>
-    <row r="158" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D158" s="40"/>
-    </row>
-    <row r="159" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D159" s="40"/>
-    </row>
-    <row r="160" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D160" s="40"/>
-    </row>
-    <row r="161" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D161" s="40"/>
-    </row>
-    <row r="162" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D162" s="40"/>
-    </row>
-    <row r="163" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D163" s="40"/>
-    </row>
-    <row r="164" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D164" s="40"/>
-    </row>
-    <row r="165" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D165" s="40"/>
-    </row>
-    <row r="166" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D166" s="40"/>
-    </row>
-    <row r="167" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D167" s="40"/>
-    </row>
-    <row r="168" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D168" s="40"/>
-    </row>
-    <row r="169" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D169" s="40"/>
-    </row>
-    <row r="170" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D170" s="40"/>
-    </row>
-    <row r="171" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D171" s="40"/>
-    </row>
-    <row r="172" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D172" s="40"/>
-    </row>
-    <row r="173" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D173" s="40"/>
-    </row>
-    <row r="174" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D174" s="40"/>
-    </row>
-    <row r="175" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D175" s="40"/>
-    </row>
-    <row r="176" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D176" s="40"/>
-    </row>
-    <row r="177" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D177" s="40"/>
-    </row>
-    <row r="178" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D178" s="40"/>
-    </row>
-    <row r="179" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D179" s="40"/>
-    </row>
-    <row r="180" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D180" s="40"/>
-    </row>
-    <row r="181" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D181" s="40"/>
-    </row>
-    <row r="182" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D182" s="40"/>
-    </row>
-    <row r="183" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D183" s="40"/>
-    </row>
-    <row r="184" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D184" s="40"/>
-    </row>
-    <row r="185" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D185" s="40"/>
-    </row>
-    <row r="186" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D186" s="40"/>
-    </row>
-    <row r="187" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D187" s="40"/>
-    </row>
-    <row r="188" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D188" s="40"/>
-    </row>
-    <row r="189" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D189" s="40"/>
-    </row>
-    <row r="190" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D190" s="40"/>
-    </row>
-    <row r="191" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D191" s="40"/>
-    </row>
-    <row r="192" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D192" s="40"/>
-    </row>
-    <row r="193" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D193" s="40"/>
-    </row>
-    <row r="194" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D194" s="40"/>
-    </row>
-    <row r="195" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D195" s="40"/>
-    </row>
-    <row r="196" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D196" s="40"/>
-    </row>
-    <row r="197" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D197" s="40"/>
-    </row>
-    <row r="198" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D198" s="40"/>
-    </row>
-    <row r="199" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D199" s="40"/>
-    </row>
-    <row r="200" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D200" s="40"/>
-    </row>
-    <row r="201" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D201" s="40"/>
-    </row>
-    <row r="202" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D202" s="40"/>
-    </row>
-    <row r="203" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D203" s="40"/>
-    </row>
-    <row r="204" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D204" s="40"/>
-    </row>
-    <row r="205" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D205" s="40"/>
-    </row>
-    <row r="206" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D206" s="40"/>
-    </row>
-    <row r="207" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D207" s="40"/>
-    </row>
-    <row r="208" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D208" s="40"/>
-    </row>
-    <row r="209" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D209" s="40"/>
-    </row>
-    <row r="210" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D210" s="40"/>
-    </row>
-    <row r="211" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D211" s="40"/>
-    </row>
-    <row r="212" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D212" s="40"/>
-    </row>
-    <row r="213" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D213" s="40"/>
-    </row>
-    <row r="214" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D214" s="40"/>
-    </row>
-    <row r="215" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D215" s="40"/>
-    </row>
-    <row r="216" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D216" s="40"/>
-    </row>
-    <row r="217" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D217" s="40"/>
-    </row>
-    <row r="218" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D218" s="40"/>
-    </row>
-    <row r="219" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D219" s="40"/>
-    </row>
-    <row r="220" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D220" s="40"/>
-    </row>
-    <row r="221" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D221" s="40"/>
-    </row>
-    <row r="222" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D222" s="40"/>
-    </row>
-    <row r="223" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D223" s="40"/>
-    </row>
-    <row r="224" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D224" s="40"/>
-    </row>
-    <row r="225" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D225" s="40"/>
-    </row>
-    <row r="226" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D226" s="40"/>
-    </row>
-    <row r="227" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D227" s="40"/>
-    </row>
-    <row r="228" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D228" s="40"/>
-    </row>
-    <row r="229" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D229" s="40"/>
-    </row>
-    <row r="230" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D230" s="40"/>
-    </row>
-    <row r="231" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D231" s="40"/>
-    </row>
-    <row r="232" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D232" s="40"/>
-    </row>
-    <row r="233" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D233" s="40"/>
-    </row>
-    <row r="234" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D234" s="40"/>
-    </row>
-    <row r="235" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D235" s="40"/>
-    </row>
-    <row r="236" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D236" s="40"/>
-    </row>
-    <row r="237" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D237" s="40"/>
-    </row>
-    <row r="238" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D238" s="40"/>
-    </row>
-    <row r="239" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D239" s="40"/>
-    </row>
-    <row r="240" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D240" s="40"/>
-    </row>
-    <row r="241" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D241" s="40"/>
-    </row>
-    <row r="242" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D242" s="40"/>
-    </row>
-    <row r="243" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D243" s="40"/>
-    </row>
-    <row r="244" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D244" s="40"/>
-    </row>
-    <row r="245" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D245" s="40"/>
-    </row>
-    <row r="246" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D246" s="40"/>
-    </row>
-    <row r="247" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D247" s="40"/>
-    </row>
-    <row r="248" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D248" s="40"/>
-    </row>
-    <row r="249" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D249" s="40"/>
-    </row>
-    <row r="250" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D250" s="40"/>
-    </row>
-    <row r="251" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D251" s="40"/>
-    </row>
-    <row r="252" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D252" s="40"/>
-    </row>
-    <row r="253" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D253" s="40"/>
-    </row>
-    <row r="254" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D254" s="40"/>
-    </row>
-    <row r="255" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D255" s="40"/>
-    </row>
-    <row r="256" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D256" s="40"/>
-    </row>
-    <row r="257" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D257" s="40"/>
-    </row>
-    <row r="258" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D258" s="40"/>
-    </row>
-    <row r="259" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D259" s="40"/>
-    </row>
-    <row r="260" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D260" s="40"/>
-    </row>
-    <row r="261" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D261" s="40"/>
-    </row>
-    <row r="262" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D262" s="40"/>
-    </row>
-    <row r="263" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D263" s="40"/>
-    </row>
-    <row r="264" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D264" s="40"/>
-    </row>
-    <row r="265" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D265" s="40"/>
-    </row>
-    <row r="266" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D266" s="40"/>
-    </row>
-    <row r="267" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D267" s="40"/>
-    </row>
-    <row r="268" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D268" s="40"/>
-    </row>
-    <row r="269" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D269" s="40"/>
-    </row>
-    <row r="270" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D270" s="40"/>
-    </row>
-    <row r="271" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D271" s="40"/>
-    </row>
-    <row r="272" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D272" s="40"/>
-    </row>
-    <row r="273" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D273" s="40"/>
-    </row>
-    <row r="274" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D274" s="40"/>
-    </row>
-    <row r="275" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D275" s="40"/>
-    </row>
-    <row r="276" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D276" s="40"/>
-    </row>
-    <row r="277" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D277" s="40"/>
-    </row>
-    <row r="278" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D278" s="40"/>
-    </row>
-    <row r="279" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D279" s="40"/>
-    </row>
-    <row r="280" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D280" s="40"/>
-    </row>
-    <row r="281" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D281" s="40"/>
-    </row>
-    <row r="282" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D282" s="40"/>
-    </row>
-    <row r="283" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D283" s="40"/>
-    </row>
-    <row r="284" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D284" s="40"/>
-    </row>
-    <row r="285" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D285" s="40"/>
-    </row>
-    <row r="286" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D286" s="40"/>
-    </row>
-    <row r="287" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D287" s="40"/>
-    </row>
-    <row r="288" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D288" s="40"/>
-    </row>
-    <row r="289" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D289" s="40"/>
-    </row>
-    <row r="290" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D290" s="40"/>
-    </row>
-    <row r="291" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D291" s="40"/>
-    </row>
-    <row r="292" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D292" s="40"/>
-    </row>
-    <row r="293" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D293" s="40"/>
-    </row>
-    <row r="294" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D294" s="40"/>
-    </row>
-    <row r="295" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D295" s="40"/>
-    </row>
-    <row r="296" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D296" s="40"/>
-    </row>
-    <row r="297" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D297" s="40"/>
-    </row>
-    <row r="298" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D298" s="40"/>
-    </row>
-    <row r="299" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D299" s="40"/>
-    </row>
-    <row r="300" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D300" s="40"/>
-    </row>
-    <row r="301" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D301" s="40"/>
-    </row>
-    <row r="302" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D302" s="40"/>
-    </row>
-    <row r="303" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D303" s="40"/>
-    </row>
-    <row r="304" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D304" s="40"/>
-    </row>
-    <row r="305" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D305" s="40"/>
-    </row>
-    <row r="306" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D306" s="40"/>
-    </row>
-    <row r="307" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D307" s="40"/>
-    </row>
-    <row r="308" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D308" s="40"/>
-    </row>
-    <row r="309" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D309" s="40"/>
-    </row>
-    <row r="310" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D310" s="40"/>
-    </row>
-    <row r="311" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D311" s="40"/>
-    </row>
-    <row r="312" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D312" s="40"/>
-    </row>
-    <row r="313" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D313" s="40"/>
-    </row>
-    <row r="314" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D314" s="40"/>
-    </row>
-    <row r="315" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D315" s="40"/>
-    </row>
-    <row r="316" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D316" s="40"/>
-    </row>
-    <row r="317" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D317" s="40"/>
-    </row>
-    <row r="318" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D318" s="40"/>
-    </row>
-    <row r="319" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D319" s="40"/>
-    </row>
-    <row r="320" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D320" s="40"/>
-    </row>
-    <row r="321" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D321" s="40"/>
-    </row>
-    <row r="322" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D322" s="40"/>
-    </row>
-    <row r="323" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D323" s="40"/>
-    </row>
-    <row r="324" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D324" s="40"/>
-    </row>
-    <row r="325" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D325" s="40"/>
-    </row>
-    <row r="326" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D326" s="40"/>
-    </row>
-    <row r="327" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D327" s="40"/>
-    </row>
-    <row r="328" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D328" s="40"/>
-    </row>
-    <row r="329" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D329" s="40"/>
-    </row>
-    <row r="330" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D330" s="40"/>
-    </row>
-    <row r="331" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D331" s="40"/>
-    </row>
-    <row r="332" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D332" s="40"/>
-    </row>
-    <row r="333" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D333" s="40"/>
-    </row>
-    <row r="334" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D334" s="40"/>
-    </row>
-    <row r="335" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D335" s="40"/>
-    </row>
-    <row r="336" spans="4:4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D336" s="40"/>
-    </row>
-    <row r="337" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15" x14ac:dyDescent="0.25"/>
+      <c r="C25" s="51"/>
+    </row>
+    <row r="26" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="52"/>
+      <c r="B26" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="52"/>
+      <c r="D26" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="40"/>
+    </row>
+    <row r="28" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="40"/>
+    </row>
+    <row r="29" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="40"/>
+    </row>
+    <row r="30" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="40"/>
+    </row>
+    <row r="31" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="40"/>
+    </row>
+    <row r="32" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="40"/>
+    </row>
+    <row r="33" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="40"/>
+    </row>
+    <row r="34" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="40"/>
+    </row>
+    <row r="35" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="40"/>
+    </row>
+    <row r="36" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="40"/>
+    </row>
+    <row r="37" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="40"/>
+    </row>
+    <row r="38" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="40"/>
+    </row>
+    <row r="39" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="40"/>
+    </row>
+    <row r="40" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="40"/>
+    </row>
+    <row r="41" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="40"/>
+    </row>
+    <row r="42" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="40"/>
+    </row>
+    <row r="43" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="40"/>
+    </row>
+    <row r="44" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="40"/>
+    </row>
+    <row r="45" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="40"/>
+    </row>
+    <row r="46" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="40"/>
+    </row>
+    <row r="47" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="40"/>
+    </row>
+    <row r="48" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="40"/>
+    </row>
+    <row r="49" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="40"/>
+    </row>
+    <row r="50" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="40"/>
+    </row>
+    <row r="51" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="40"/>
+    </row>
+    <row r="52" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="40"/>
+    </row>
+    <row r="53" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="40"/>
+    </row>
+    <row r="54" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="40"/>
+    </row>
+    <row r="55" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="40"/>
+    </row>
+    <row r="56" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="40"/>
+    </row>
+    <row r="57" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="40"/>
+    </row>
+    <row r="58" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="40"/>
+    </row>
+    <row r="59" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="40"/>
+    </row>
+    <row r="60" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="40"/>
+    </row>
+    <row r="61" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="40"/>
+    </row>
+    <row r="62" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="40"/>
+    </row>
+    <row r="63" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="40"/>
+    </row>
+    <row r="64" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="40"/>
+    </row>
+    <row r="65" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="40"/>
+    </row>
+    <row r="66" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="40"/>
+    </row>
+    <row r="67" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="40"/>
+    </row>
+    <row r="68" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="40"/>
+    </row>
+    <row r="69" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="40"/>
+    </row>
+    <row r="70" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="40"/>
+    </row>
+    <row r="71" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C71" s="40"/>
+    </row>
+    <row r="72" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C72" s="40"/>
+    </row>
+    <row r="73" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C73" s="40"/>
+    </row>
+    <row r="74" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C74" s="40"/>
+    </row>
+    <row r="75" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="40"/>
+    </row>
+    <row r="76" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C76" s="40"/>
+    </row>
+    <row r="77" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C77" s="40"/>
+    </row>
+    <row r="78" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C78" s="40"/>
+    </row>
+    <row r="79" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C79" s="40"/>
+    </row>
+    <row r="80" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C80" s="40"/>
+    </row>
+    <row r="81" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C81" s="40"/>
+    </row>
+    <row r="82" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C82" s="40"/>
+    </row>
+    <row r="83" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C83" s="40"/>
+    </row>
+    <row r="84" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C84" s="40"/>
+    </row>
+    <row r="85" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C85" s="40"/>
+    </row>
+    <row r="86" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C86" s="40"/>
+    </row>
+    <row r="87" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C87" s="40"/>
+    </row>
+    <row r="88" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C88" s="40"/>
+    </row>
+    <row r="89" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C89" s="40"/>
+    </row>
+    <row r="90" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C90" s="40"/>
+    </row>
+    <row r="91" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C91" s="40"/>
+    </row>
+    <row r="92" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C92" s="40"/>
+    </row>
+    <row r="93" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C93" s="40"/>
+    </row>
+    <row r="94" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C94" s="40"/>
+    </row>
+    <row r="95" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C95" s="40"/>
+    </row>
+    <row r="96" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C96" s="40"/>
+    </row>
+    <row r="97" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C97" s="40"/>
+    </row>
+    <row r="98" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C98" s="40"/>
+    </row>
+    <row r="99" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C99" s="40"/>
+    </row>
+    <row r="100" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C100" s="40"/>
+    </row>
+    <row r="101" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C101" s="40"/>
+    </row>
+    <row r="102" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C102" s="40"/>
+    </row>
+    <row r="103" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C103" s="40"/>
+    </row>
+    <row r="104" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C104" s="40"/>
+    </row>
+    <row r="105" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C105" s="40"/>
+    </row>
+    <row r="106" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C106" s="40"/>
+    </row>
+    <row r="107" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C107" s="40"/>
+    </row>
+    <row r="108" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C108" s="40"/>
+    </row>
+    <row r="109" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C109" s="40"/>
+    </row>
+    <row r="110" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C110" s="40"/>
+    </row>
+    <row r="111" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C111" s="40"/>
+    </row>
+    <row r="112" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C112" s="40"/>
+    </row>
+    <row r="113" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C113" s="40"/>
+    </row>
+    <row r="114" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C114" s="40"/>
+    </row>
+    <row r="115" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C115" s="40"/>
+    </row>
+    <row r="116" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C116" s="40"/>
+    </row>
+    <row r="117" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C117" s="40"/>
+    </row>
+    <row r="118" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C118" s="40"/>
+    </row>
+    <row r="119" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C119" s="40"/>
+    </row>
+    <row r="120" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C120" s="40"/>
+    </row>
+    <row r="121" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C121" s="40"/>
+    </row>
+    <row r="122" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C122" s="40"/>
+    </row>
+    <row r="123" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C123" s="40"/>
+    </row>
+    <row r="124" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C124" s="40"/>
+    </row>
+    <row r="125" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C125" s="40"/>
+    </row>
+    <row r="126" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C126" s="40"/>
+    </row>
+    <row r="127" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C127" s="40"/>
+    </row>
+    <row r="128" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C128" s="40"/>
+    </row>
+    <row r="129" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C129" s="40"/>
+    </row>
+    <row r="130" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C130" s="40"/>
+    </row>
+    <row r="131" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C131" s="40"/>
+    </row>
+    <row r="132" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C132" s="40"/>
+    </row>
+    <row r="133" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C133" s="40"/>
+    </row>
+    <row r="134" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C134" s="40"/>
+    </row>
+    <row r="135" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C135" s="40"/>
+    </row>
+    <row r="136" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C136" s="40"/>
+    </row>
+    <row r="137" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C137" s="40"/>
+    </row>
+    <row r="138" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C138" s="40"/>
+    </row>
+    <row r="139" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C139" s="40"/>
+    </row>
+    <row r="140" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C140" s="40"/>
+    </row>
+    <row r="141" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C141" s="40"/>
+    </row>
+    <row r="142" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C142" s="40"/>
+    </row>
+    <row r="143" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C143" s="40"/>
+    </row>
+    <row r="144" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C144" s="40"/>
+    </row>
+    <row r="145" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C145" s="40"/>
+    </row>
+    <row r="146" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C146" s="40"/>
+    </row>
+    <row r="147" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C147" s="40"/>
+    </row>
+    <row r="148" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C148" s="40"/>
+    </row>
+    <row r="149" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C149" s="40"/>
+    </row>
+    <row r="150" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C150" s="40"/>
+    </row>
+    <row r="151" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C151" s="40"/>
+    </row>
+    <row r="152" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C152" s="40"/>
+    </row>
+    <row r="153" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C153" s="40"/>
+    </row>
+    <row r="154" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C154" s="40"/>
+    </row>
+    <row r="155" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C155" s="40"/>
+    </row>
+    <row r="156" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C156" s="40"/>
+    </row>
+    <row r="157" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C157" s="40"/>
+    </row>
+    <row r="158" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C158" s="40"/>
+    </row>
+    <row r="159" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C159" s="40"/>
+    </row>
+    <row r="160" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C160" s="40"/>
+    </row>
+    <row r="161" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C161" s="40"/>
+    </row>
+    <row r="162" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C162" s="40"/>
+    </row>
+    <row r="163" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C163" s="40"/>
+    </row>
+    <row r="164" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C164" s="40"/>
+    </row>
+    <row r="165" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C165" s="40"/>
+    </row>
+    <row r="166" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C166" s="40"/>
+    </row>
+    <row r="167" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C167" s="40"/>
+    </row>
+    <row r="168" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C168" s="40"/>
+    </row>
+    <row r="169" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C169" s="40"/>
+    </row>
+    <row r="170" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C170" s="40"/>
+    </row>
+    <row r="171" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C171" s="40"/>
+    </row>
+    <row r="172" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C172" s="40"/>
+    </row>
+    <row r="173" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C173" s="40"/>
+    </row>
+    <row r="174" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C174" s="40"/>
+    </row>
+    <row r="175" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C175" s="40"/>
+    </row>
+    <row r="176" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C176" s="40"/>
+    </row>
+    <row r="177" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C177" s="40"/>
+    </row>
+    <row r="178" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C178" s="40"/>
+    </row>
+    <row r="179" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C179" s="40"/>
+    </row>
+    <row r="180" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C180" s="40"/>
+    </row>
+    <row r="181" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C181" s="40"/>
+    </row>
+    <row r="182" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C182" s="40"/>
+    </row>
+    <row r="183" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C183" s="40"/>
+    </row>
+    <row r="184" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C184" s="40"/>
+    </row>
+    <row r="185" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C185" s="40"/>
+    </row>
+    <row r="186" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C186" s="40"/>
+    </row>
+    <row r="187" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C187" s="40"/>
+    </row>
+    <row r="188" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C188" s="40"/>
+    </row>
+    <row r="189" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C189" s="40"/>
+    </row>
+    <row r="190" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C190" s="40"/>
+    </row>
+    <row r="191" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C191" s="40"/>
+    </row>
+    <row r="192" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C192" s="40"/>
+    </row>
+    <row r="193" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C193" s="40"/>
+    </row>
+    <row r="194" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C194" s="40"/>
+    </row>
+    <row r="195" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C195" s="40"/>
+    </row>
+    <row r="196" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C196" s="40"/>
+    </row>
+    <row r="197" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C197" s="40"/>
+    </row>
+    <row r="198" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C198" s="40"/>
+    </row>
+    <row r="199" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C199" s="40"/>
+    </row>
+    <row r="200" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C200" s="40"/>
+    </row>
+    <row r="201" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C201" s="40"/>
+    </row>
+    <row r="202" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C202" s="40"/>
+    </row>
+    <row r="203" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C203" s="40"/>
+    </row>
+    <row r="204" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C204" s="40"/>
+    </row>
+    <row r="205" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C205" s="40"/>
+    </row>
+    <row r="206" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C206" s="40"/>
+    </row>
+    <row r="207" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C207" s="40"/>
+    </row>
+    <row r="208" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C208" s="40"/>
+    </row>
+    <row r="209" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C209" s="40"/>
+    </row>
+    <row r="210" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C210" s="40"/>
+    </row>
+    <row r="211" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C211" s="40"/>
+    </row>
+    <row r="212" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C212" s="40"/>
+    </row>
+    <row r="213" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C213" s="40"/>
+    </row>
+    <row r="214" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C214" s="40"/>
+    </row>
+    <row r="215" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C215" s="40"/>
+    </row>
+    <row r="216" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C216" s="40"/>
+    </row>
+    <row r="217" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C217" s="40"/>
+    </row>
+    <row r="218" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C218" s="40"/>
+    </row>
+    <row r="219" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C219" s="40"/>
+    </row>
+    <row r="220" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C220" s="40"/>
+    </row>
+    <row r="221" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C221" s="40"/>
+    </row>
+    <row r="222" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C222" s="40"/>
+    </row>
+    <row r="223" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C223" s="40"/>
+    </row>
+    <row r="224" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C224" s="40"/>
+    </row>
+    <row r="225" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C225" s="40"/>
+    </row>
+    <row r="226" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C226" s="40"/>
+    </row>
+    <row r="227" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C227" s="40"/>
+    </row>
+    <row r="228" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C228" s="40"/>
+    </row>
+    <row r="229" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C229" s="40"/>
+    </row>
+    <row r="230" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C230" s="40"/>
+    </row>
+    <row r="231" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C231" s="40"/>
+    </row>
+    <row r="232" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C232" s="40"/>
+    </row>
+    <row r="233" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C233" s="40"/>
+    </row>
+    <row r="234" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C234" s="40"/>
+    </row>
+    <row r="235" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C235" s="40"/>
+    </row>
+    <row r="236" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C236" s="40"/>
+    </row>
+    <row r="237" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C237" s="40"/>
+    </row>
+    <row r="238" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C238" s="40"/>
+    </row>
+    <row r="239" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C239" s="40"/>
+    </row>
+    <row r="240" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C240" s="40"/>
+    </row>
+    <row r="241" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C241" s="40"/>
+    </row>
+    <row r="242" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C242" s="40"/>
+    </row>
+    <row r="243" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C243" s="40"/>
+    </row>
+    <row r="244" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C244" s="40"/>
+    </row>
+    <row r="245" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C245" s="40"/>
+    </row>
+    <row r="246" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C246" s="40"/>
+    </row>
+    <row r="247" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C247" s="40"/>
+    </row>
+    <row r="248" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C248" s="40"/>
+    </row>
+    <row r="249" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C249" s="40"/>
+    </row>
+    <row r="250" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C250" s="40"/>
+    </row>
+    <row r="251" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C251" s="40"/>
+    </row>
+    <row r="252" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C252" s="40"/>
+    </row>
+    <row r="253" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C253" s="40"/>
+    </row>
+    <row r="254" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C254" s="40"/>
+    </row>
+    <row r="255" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C255" s="40"/>
+    </row>
+    <row r="256" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C256" s="40"/>
+    </row>
+    <row r="257" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C257" s="40"/>
+    </row>
+    <row r="258" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C258" s="40"/>
+    </row>
+    <row r="259" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C259" s="40"/>
+    </row>
+    <row r="260" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C260" s="40"/>
+    </row>
+    <row r="261" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C261" s="40"/>
+    </row>
+    <row r="262" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C262" s="40"/>
+    </row>
+    <row r="263" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C263" s="40"/>
+    </row>
+    <row r="264" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C264" s="40"/>
+    </row>
+    <row r="265" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C265" s="40"/>
+    </row>
+    <row r="266" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C266" s="40"/>
+    </row>
+    <row r="267" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C267" s="40"/>
+    </row>
+    <row r="268" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C268" s="40"/>
+    </row>
+    <row r="269" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C269" s="40"/>
+    </row>
+    <row r="270" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C270" s="40"/>
+    </row>
+    <row r="271" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C271" s="40"/>
+    </row>
+    <row r="272" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C272" s="40"/>
+    </row>
+    <row r="273" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C273" s="40"/>
+    </row>
+    <row r="274" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C274" s="40"/>
+    </row>
+    <row r="275" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C275" s="40"/>
+    </row>
+    <row r="276" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C276" s="40"/>
+    </row>
+    <row r="277" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C277" s="40"/>
+    </row>
+    <row r="278" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C278" s="40"/>
+    </row>
+    <row r="279" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C279" s="40"/>
+    </row>
+    <row r="280" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C280" s="40"/>
+    </row>
+    <row r="281" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C281" s="40"/>
+    </row>
+    <row r="282" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C282" s="40"/>
+    </row>
+    <row r="283" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C283" s="40"/>
+    </row>
+    <row r="284" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C284" s="40"/>
+    </row>
+    <row r="285" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C285" s="40"/>
+    </row>
+    <row r="286" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C286" s="40"/>
+    </row>
+    <row r="287" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C287" s="40"/>
+    </row>
+    <row r="288" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C288" s="40"/>
+    </row>
+    <row r="289" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C289" s="40"/>
+    </row>
+    <row r="290" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C290" s="40"/>
+    </row>
+    <row r="291" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C291" s="40"/>
+    </row>
+    <row r="292" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C292" s="40"/>
+    </row>
+    <row r="293" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C293" s="40"/>
+    </row>
+    <row r="294" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C294" s="40"/>
+    </row>
+    <row r="295" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C295" s="40"/>
+    </row>
+    <row r="296" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C296" s="40"/>
+    </row>
+    <row r="297" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C297" s="40"/>
+    </row>
+    <row r="298" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C298" s="40"/>
+    </row>
+    <row r="299" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C299" s="40"/>
+    </row>
+    <row r="300" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C300" s="40"/>
+    </row>
+    <row r="301" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C301" s="40"/>
+    </row>
+    <row r="302" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C302" s="40"/>
+    </row>
+    <row r="303" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C303" s="40"/>
+    </row>
+    <row r="304" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C304" s="40"/>
+    </row>
+    <row r="305" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C305" s="40"/>
+    </row>
+    <row r="306" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C306" s="40"/>
+    </row>
+    <row r="307" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C307" s="40"/>
+    </row>
+    <row r="308" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C308" s="40"/>
+    </row>
+    <row r="309" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C309" s="40"/>
+    </row>
+    <row r="310" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C310" s="40"/>
+    </row>
+    <row r="311" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C311" s="40"/>
+    </row>
+    <row r="312" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C312" s="40"/>
+    </row>
+    <row r="313" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C313" s="40"/>
+    </row>
+    <row r="314" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C314" s="40"/>
+    </row>
+    <row r="315" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C315" s="40"/>
+    </row>
+    <row r="316" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C316" s="40"/>
+    </row>
+    <row r="317" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C317" s="40"/>
+    </row>
+    <row r="318" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C318" s="40"/>
+    </row>
+    <row r="319" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C319" s="40"/>
+    </row>
+    <row r="320" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C320" s="40"/>
+    </row>
+    <row r="321" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C321" s="40"/>
+    </row>
+    <row r="322" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C322" s="40"/>
+    </row>
+    <row r="323" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C323" s="40"/>
+    </row>
+    <row r="324" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C324" s="40"/>
+    </row>
+    <row r="325" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C325" s="40"/>
+    </row>
+    <row r="326" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C326" s="40"/>
+    </row>
+    <row r="327" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C327" s="40"/>
+    </row>
+    <row r="328" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C328" s="40"/>
+    </row>
+    <row r="329" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C329" s="40"/>
+    </row>
+    <row r="330" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C330" s="40"/>
+    </row>
+    <row r="331" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C331" s="40"/>
+    </row>
+    <row r="332" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C332" s="40"/>
+    </row>
+    <row r="333" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C333" s="40"/>
+    </row>
+    <row r="334" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C334" s="40"/>
+    </row>
+    <row r="335" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C335" s="40"/>
+    </row>
+    <row r="336" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C336" s="40"/>
+    </row>
+    <row r="337" spans="3:3" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C337" s="40"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="D14:D16"/>
+  <mergeCells count="17">
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3930,10 +3971,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6B0F65-C746-424A-8F79-B872BB8F9443}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3947,162 +3988,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="F1" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="58"/>
+      <c r="A1" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="F1" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="56"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="45">
+        <v>61</v>
+      </c>
+      <c r="B3" s="43">
         <f>F3</f>
-        <v>21</v>
-      </c>
-      <c r="C3" s="45">
+        <v>24</v>
+      </c>
+      <c r="C3" s="43">
         <f>F3</f>
-        <v>21</v>
-      </c>
-      <c r="D3" s="46">
+        <v>24</v>
+      </c>
+      <c r="D3" s="44">
         <v>44119</v>
       </c>
-      <c r="F3" s="44">
-        <f>COUNTA(Sprints!B3:B23)</f>
-        <v>21</v>
+      <c r="F3" s="42">
+        <f>COUNTA(Sprints!B3:B26)</f>
+        <v>24</v>
       </c>
       <c r="G3" s="32">
         <f>F3/COUNTA(A4:A11)</f>
-        <v>2.625</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4" s="30">
         <f>B3-$G$3</f>
-        <v>18.375</v>
-      </c>
-      <c r="C4" s="30"/>
+        <v>21</v>
+      </c>
+      <c r="C4" s="30">
+        <f>C3-3</f>
+        <v>21</v>
+      </c>
       <c r="D4" s="37">
-        <f>Sprints!D3</f>
+        <f>Sprints!C3</f>
         <v>44121</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" s="30">
         <f t="shared" ref="B5:B11" si="0">B4-$G$3</f>
-        <v>15.75</v>
+        <v>18</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="37">
-        <f>Sprints!D5</f>
-        <v>44123</v>
+        <f>Sprints!C6</f>
+        <v>44124</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B6" s="30">
         <f t="shared" si="0"/>
-        <v>13.125</v>
+        <v>15</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="37">
-        <f>Sprints!D8</f>
-        <v>44125</v>
+        <f>Sprints!C9</f>
+        <v>44126</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="B7" s="30">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="37">
-        <f>Sprints!D11</f>
-        <v>44127</v>
+        <f>Sprints!C12</f>
+        <v>44128</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="B8" s="30">
         <f t="shared" si="0"/>
-        <v>7.875</v>
+        <v>9</v>
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="37">
-        <f>Sprints!D14</f>
-        <v>44129</v>
+        <f>Sprints!C15</f>
+        <v>44130</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="B9" s="30">
         <f t="shared" si="0"/>
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="37">
-        <f>Sprints!D17</f>
-        <v>44131</v>
+        <f>Sprints!C18</f>
+        <v>44132</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="B10" s="30">
         <f t="shared" si="0"/>
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="37">
-        <f>Sprints!D20</f>
-        <v>44133</v>
+        <f>Sprints!C21</f>
+        <v>44134</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="B11" s="30">
         <f t="shared" si="0"/>
@@ -4110,42 +4154,42 @@
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="37">
-        <f>Sprints!D23</f>
-        <v>44135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="60">
+        <f>Sprints!C24</f>
+        <v>44136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="58">
         <v>43997</v>
       </c>
-      <c r="C13" s="61"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="61"/>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="34"/>
+      <c r="C21" s="59"/>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="58">
+        <v>43983</v>
+      </c>
+      <c r="C22" s="59"/>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="57"/>
+      <c r="C23" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>

--- a/analise/Gerenciamento.xlsx
+++ b/analise/Gerenciamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\TCC\analise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CD2BF1-0B67-4997-9C6F-63AF2F133902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0BAC5B-4771-4ED2-BE3D-FF3D34A7FC33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="118">
   <si>
     <t>Modulo</t>
   </si>
@@ -131,9 +131,6 @@
     <t>Nesta funcinalidade usuario deve estar devidamente cadastrado como listado no requisito 001.Cadastrar Cliente do modulo de acesso, nela o usuario do sistema poderá adicionar os livros que tem interesse um seu lista de favoritos facilitando o acesso a ele.</t>
   </si>
   <si>
-    <t>Selecionar Produto</t>
-  </si>
-  <si>
     <t>Não é nescessario ter cadastro de para acessar essa funcionalidade, após consultar o livros no catálogo, deve ser possivel visualizar todas as informações de um livros ao selecionlo, tendo também com adicionar ao carrinho, ler a sinopse do livro, calcular frete.</t>
   </si>
   <si>
@@ -164,9 +161,6 @@
     <t>Cancelar Compra</t>
   </si>
   <si>
-    <t>Cliente deve poder cancelar uma comprar, essa compra não deve ser comprada caso o item ainda não tenha sido enviado caso já tenha cliente deve aguarda sua chegada e fazer o pedido de reembolso .</t>
-  </si>
-  <si>
     <t>Níveis</t>
   </si>
   <si>
@@ -360,6 +354,39 @@
   </si>
   <si>
     <t>Cliente deve poder realizar a alteração de seus dados cadastrais</t>
+  </si>
+  <si>
+    <t>Manter Editora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">funcionario </t>
+  </si>
+  <si>
+    <t>Funcionario deve conseguir Inserir e realizar a manutencao dos Editores caastrados no sistema (podendo inserir, excluir e alterar qualquer um caso nescessario).</t>
+  </si>
+  <si>
+    <t>Manter Autor</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>Funcionario deve conseguir Inserir e realizar a manutencao dos Autores caastrados no sistema (podendo inserir, excluir e alterar qualquer um caso nescessario).</t>
+  </si>
+  <si>
+    <t>Cliente deve poder cancelar uma comprar, essa compra não deve ser comprada caso o item ainda não tenha sido enviado caso já tenha cliente deve aguarda sua chegada e fazer o pedido de develução .</t>
+  </si>
+  <si>
+    <t>Acopanhar Pedido</t>
+  </si>
+  <si>
+    <t>Deve ser permitido ao cliente realizar a consulta e monitoramento de status de todos os seu pedido.</t>
+  </si>
+  <si>
+    <t>Devolucao</t>
+  </si>
+  <si>
+    <t>Cliente deve conseguir realizar o pedido de devolução, podendo realizar essa devoução dentro de uma prazo de no maximo 10 dias após o recebimento de pedido.</t>
   </si>
 </sst>
 </file>
@@ -821,6 +848,9 @@
     </xf>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -836,24 +866,24 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -871,9 +901,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2210,10 +2237,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E6"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2251,7 +2278,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -2272,7 +2299,7 @@
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
@@ -2291,7 +2318,7 @@
       <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="14" t="s">
         <v>24</v>
       </c>
@@ -2310,7 +2337,7 @@
       <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="18" t="s">
         <v>21</v>
       </c>
@@ -2329,9 +2356,9 @@
       <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>13</v>
@@ -2340,7 +2367,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F6" s="11">
         <v>0</v>
@@ -2348,7 +2375,7 @@
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="46" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2369,7 +2396,7 @@
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="45"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="7" t="s">
         <v>28</v>
       </c>
@@ -2388,7 +2415,7 @@
       <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="45"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="14" t="s">
         <v>30</v>
       </c>
@@ -2406,19 +2433,19 @@
       </c>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45"/>
+    <row r="10" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="46"/>
       <c r="B10" s="18" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="F10" s="11">
         <v>0</v>
@@ -2426,77 +2453,75 @@
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="46"/>
+      <c r="B12" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="21" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:7" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="F12" s="11">
         <v>0</v>
       </c>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="45"/>
-      <c r="B13" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="16" t="s">
+    <row r="13" spans="1:7" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>29</v>
+      <c r="E13" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="F13" s="11">
         <v>0</v>
       </c>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="45"/>
-      <c r="B14" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="20" t="s">
+    <row r="14" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="46"/>
+      <c r="B14" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="21" t="s">
-        <v>31</v>
+      <c r="E14" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="F14" s="11">
         <v>0</v>
@@ -2504,37 +2529,37 @@
       <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F15" s="11">
         <v>0</v>
       </c>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="45"/>
+    <row r="16" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="46"/>
       <c r="B16" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F16" s="11">
         <v>0</v>
@@ -2542,148 +2567,201 @@
       <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="45"/>
-      <c r="B17" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="16" t="s">
+      <c r="A17" s="46"/>
+      <c r="B17" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>43</v>
+      <c r="E17" s="21" t="s">
+        <v>34</v>
       </c>
       <c r="F17" s="11">
         <v>0</v>
       </c>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="9" t="s">
+    <row r="18" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="46"/>
+      <c r="B18" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="11">
-        <v>0</v>
-      </c>
+      <c r="E18" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="11"/>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="45"/>
-      <c r="B19" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="16" t="s">
+    <row r="19" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="46"/>
+      <c r="B19" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="11">
-        <v>0</v>
-      </c>
+      <c r="E19" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="11"/>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="45"/>
+    <row r="20" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="46"/>
       <c r="B20" s="14" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="F20" s="11">
         <v>0</v>
       </c>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
+    <row r="21" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0</v>
+      </c>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="46"/>
+      <c r="B22" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0</v>
+      </c>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="46"/>
+      <c r="B23" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="50"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
+      <c r="B26" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="49"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23" t="s">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="B27" s="23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="23" t="s">
+    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="26"/>
+    </row>
+    <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="48"/>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="27">
+        <v>0</v>
+      </c>
+      <c r="B30" s="23" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="23" t="s">
+    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="27">
+        <v>1</v>
+      </c>
+      <c r="B31" s="23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
-    </row>
-    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="47"/>
-    </row>
-    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="27">
-        <v>0</v>
-      </c>
-      <c r="B27" s="23" t="s">
+    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="27">
+        <v>2</v>
+      </c>
+      <c r="B32" s="23" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="27">
-        <v>1</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="27">
-        <v>2</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <conditionalFormatting sqref="F2:F6">
     <cfRule type="iconSet" priority="15">
@@ -2694,7 +2772,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7:F11">
+  <conditionalFormatting sqref="F7:F12">
     <cfRule type="iconSet" priority="6">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -2703,16 +2781,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12:F16">
-    <cfRule type="iconSet" priority="16">
-      <iconSet iconSet="3Symbols2" showValue="0">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="2"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
+  <conditionalFormatting sqref="F20">
     <cfRule type="iconSet" priority="4">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -2721,7 +2790,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:A29">
+  <conditionalFormatting sqref="A30:A32">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -2730,8 +2799,17 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18:F20">
+  <conditionalFormatting sqref="F21:F23">
     <cfRule type="iconSet" priority="18">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13:F19">
+    <cfRule type="iconSet" priority="19">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="1"/>
@@ -2762,23 +2840,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
+      <c r="A1" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
     </row>
     <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>6</v>
@@ -2788,227 +2866,227 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55">
+      <c r="A3" s="51">
         <v>1</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="54">
+        <v>44121</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="52"/>
+      <c r="B4" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="56"/>
+      <c r="D4" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="52"/>
+      <c r="B5" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="56"/>
+      <c r="D5" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="51">
+        <v>2</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="54">
+        <v>44124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="52"/>
+      <c r="B7" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="50">
-        <v>44121</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="62" t="s">
+      <c r="C7" s="52"/>
+    </row>
+    <row r="8" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="53"/>
+      <c r="B8" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="55">
-        <v>2</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="50">
-        <v>44124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
-      <c r="B7" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="51"/>
-    </row>
-    <row r="8" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
-      <c r="B8" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="52"/>
+      <c r="C8" s="53"/>
     </row>
     <row r="9" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="55">
+      <c r="A9" s="51">
         <v>3</v>
       </c>
       <c r="B9" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="54">
         <v>44126</v>
       </c>
     </row>
     <row r="10" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="51"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="52"/>
+    </row>
+    <row r="11" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="53"/>
+      <c r="B11" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="53"/>
+    </row>
+    <row r="12" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="51">
+        <v>4</v>
+      </c>
+      <c r="B12" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="51"/>
-    </row>
-    <row r="11" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
-      <c r="B11" s="39" t="s">
+      <c r="C12" s="54">
+        <v>44128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="52"/>
+      <c r="B13" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="52"/>
+    </row>
+    <row r="14" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="53"/>
+      <c r="B14" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="53"/>
+    </row>
+    <row r="15" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="51">
+        <v>5</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="54">
+        <v>44130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="52"/>
+      <c r="B16" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="52"/>
+    </row>
+    <row r="17" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="53"/>
+      <c r="B17" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="53"/>
+    </row>
+    <row r="18" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="51">
+        <v>6</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="54">
+        <v>44132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="52"/>
+      <c r="B19" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="52"/>
+    </row>
+    <row r="20" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="53"/>
+      <c r="B20" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="53"/>
+    </row>
+    <row r="21" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="51">
+        <v>7</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="54">
+        <v>44134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="52"/>
+      <c r="B22" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="52"/>
+    </row>
+    <row r="23" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="53"/>
+      <c r="B23" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="53"/>
+    </row>
+    <row r="24" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="51">
+        <v>8</v>
+      </c>
+      <c r="B24" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="52"/>
-    </row>
-    <row r="12" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="55">
-        <v>4</v>
-      </c>
-      <c r="B12" s="39" t="s">
+      <c r="C24" s="54">
+        <v>44136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="52"/>
+      <c r="B25" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="50">
-        <v>44128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
-      <c r="B13" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="51"/>
-    </row>
-    <row r="14" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="52"/>
-      <c r="B14" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="52"/>
-    </row>
-    <row r="15" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="55">
-        <v>5</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="50">
-        <v>44130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="51"/>
-      <c r="B16" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="51"/>
-    </row>
-    <row r="17" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="52"/>
-      <c r="B17" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="52"/>
-    </row>
-    <row r="18" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="55">
-        <v>6</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="50">
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="51"/>
-      <c r="B19" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="51"/>
-    </row>
-    <row r="20" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="52"/>
-      <c r="B20" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="52"/>
-    </row>
-    <row r="21" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="55">
-        <v>7</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="50">
-        <v>44134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="51"/>
-      <c r="B22" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="51"/>
-    </row>
-    <row r="23" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="52"/>
-      <c r="B23" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="52"/>
-    </row>
-    <row r="24" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="55">
-        <v>8</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="50">
-        <v>44136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="51"/>
-      <c r="B25" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="51"/>
+      <c r="C25" s="52"/>
     </row>
     <row r="26" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="52"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="52"/>
+        <v>71</v>
+      </c>
+      <c r="C26" s="53"/>
       <c r="D26" s="38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3946,6 +4024,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C15:C17"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="C18:C20"/>
@@ -3962,7 +4041,6 @@
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3988,40 +4066,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="F1" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="56"/>
+      <c r="A1" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="F1" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="57"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" s="43">
         <f>F3</f>
@@ -4045,7 +4123,7 @@
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" s="30">
         <f>B3-$G$3</f>
@@ -4062,7 +4140,7 @@
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" s="30">
         <f t="shared" ref="B5:B11" si="0">B4-$G$3</f>
@@ -4076,7 +4154,7 @@
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" s="30">
         <f t="shared" si="0"/>
@@ -4090,7 +4168,7 @@
     </row>
     <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B7" s="30">
         <f t="shared" si="0"/>
@@ -4104,7 +4182,7 @@
     </row>
     <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B8" s="30">
         <f t="shared" si="0"/>
@@ -4118,7 +4196,7 @@
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B9" s="30">
         <f t="shared" si="0"/>
@@ -4132,7 +4210,7 @@
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B10" s="30">
         <f t="shared" si="0"/>
@@ -4146,7 +4224,7 @@
     </row>
     <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B11" s="30">
         <f t="shared" si="0"/>
@@ -4161,27 +4239,27 @@
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="58">
+        <v>64</v>
+      </c>
+      <c r="B21" s="59">
         <v>43997</v>
       </c>
-      <c r="C21" s="59"/>
+      <c r="C21" s="60"/>
     </row>
     <row r="22" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="58">
+        <v>65</v>
+      </c>
+      <c r="B22" s="59">
         <v>43983</v>
       </c>
-      <c r="C22" s="59"/>
+      <c r="C22" s="60"/>
     </row>
     <row r="23" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="57"/>
+      <c r="A23" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="58"/>
       <c r="C23" s="34"/>
     </row>
   </sheetData>

--- a/analise/Gerenciamento.xlsx
+++ b/analise/Gerenciamento.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Desktop\TCC\analise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Documents\TCC\analise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0BAC5B-4771-4ED2-BE3D-FF3D34A7FC33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CD0B5A-0189-4FFF-910F-3729DB6F8DA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requisitos" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="122">
   <si>
     <t>Modulo</t>
   </si>
@@ -248,12 +248,6 @@
     <t>Sprints</t>
   </si>
   <si>
-    <t>Revisão</t>
-  </si>
-  <si>
-    <t>Todos</t>
-  </si>
-  <si>
     <t>Total de Sprints</t>
   </si>
   <si>
@@ -308,9 +302,6 @@
     <t>Request, Response e Conversores Padrões das tabelas</t>
   </si>
   <si>
-    <t>Tela de Login</t>
-  </si>
-  <si>
     <t>Business</t>
   </si>
   <si>
@@ -387,13 +378,34 @@
   </si>
   <si>
     <t>Cliente deve conseguir realizar o pedido de devolução, podendo realizar essa devoução dentro de uma prazo de no maximo 10 dias após o recebimento de pedido.</t>
+  </si>
+  <si>
+    <t>Criptografia</t>
+  </si>
+  <si>
+    <t>Envio de Email</t>
+  </si>
+  <si>
+    <t>Pesquisar funcionamento da api dos correios</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rebecca </t>
+  </si>
+  <si>
+    <t>Ramon</t>
+  </si>
+  <si>
+    <t>Rebecca</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,6 +493,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -533,7 +553,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -697,43 +717,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -744,7 +727,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -866,22 +849,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -902,6 +876,7 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Ênfase1" xfId="4" builtinId="30"/>
@@ -2239,7 +2214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E21" sqref="E21:E22"/>
     </sheetView>
   </sheetViews>
@@ -2358,7 +2333,7 @@
     <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="46"/>
       <c r="B6" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>13</v>
@@ -2367,7 +2342,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F6" s="11">
         <v>0</v>
@@ -2436,16 +2411,16 @@
     <row r="10" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="46"/>
       <c r="B10" s="18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F10" s="11">
         <v>0</v>
@@ -2455,16 +2430,16 @@
     <row r="11" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="46"/>
       <c r="B11" s="18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
@@ -2475,7 +2450,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>23</v>
@@ -2588,7 +2563,7 @@
     <row r="18" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="46"/>
       <c r="B18" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>14</v>
@@ -2597,7 +2572,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="12"/>
@@ -2605,16 +2580,16 @@
     <row r="19" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="46"/>
       <c r="B19" s="18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="12"/>
@@ -2625,13 +2600,13 @@
         <v>41</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F20" s="11">
         <v>0</v>
@@ -2824,35 +2799,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3E3989-44EE-421D-BBD1-34EC265F0F69}">
-  <dimension ref="A1:E337"/>
+  <dimension ref="A1:H337"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" thickBottom="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.85546875" style="36" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" style="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" style="36" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-    </row>
-    <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="41" t="s">
         <v>68</v>
       </c>
       <c r="C2" s="35" t="s">
@@ -2861,235 +2836,277 @@
       <c r="D2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="41" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51">
+    <row r="3" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="53">
         <v>1</v>
       </c>
       <c r="B3" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="51">
+        <v>44123</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="53"/>
+      <c r="B4" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="53"/>
+      <c r="B5" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="51"/>
+      <c r="D5" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="53"/>
+      <c r="B6" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="54">
-        <v>44121</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="39" t="s">
+      <c r="C6" s="51"/>
+      <c r="D6" s="38" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
-      <c r="B4" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="52"/>
-      <c r="B5" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="51">
+      <c r="E6" s="38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="53">
         <v>2</v>
       </c>
-      <c r="B6" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="54">
-        <v>44124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="52"/>
-    </row>
-    <row r="8" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="51">
+        <v>44127</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="53"/>
       <c r="B8" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="53"/>
-    </row>
-    <row r="9" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="51">
+        <v>74</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="53"/>
+      <c r="B9" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="53"/>
+      <c r="B10" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="51"/>
+      <c r="D10" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="53">
         <v>3</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B11" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="51">
+        <v>44131</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="53"/>
+      <c r="B12" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="54">
-        <v>44126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
-      <c r="B10" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="52"/>
-    </row>
-    <row r="11" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
-      <c r="B11" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="53"/>
-    </row>
-    <row r="12" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51">
-        <v>4</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="54">
-        <v>44128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
-      <c r="B13" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="52"/>
-    </row>
-    <row r="14" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="51"/>
+      <c r="D12" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="53"/>
+      <c r="B13" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="51"/>
+      <c r="D13" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="53"/>
       <c r="B14" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="53"/>
-    </row>
-    <row r="15" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="51">
-        <v>5</v>
+        <v>91</v>
+      </c>
+      <c r="C14" s="51"/>
+    </row>
+    <row r="15" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="53">
+        <v>4</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="54">
-        <v>44130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
+        <v>84</v>
+      </c>
+      <c r="C15" s="51">
+        <v>44135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="53"/>
       <c r="B16" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="52"/>
+        <v>92</v>
+      </c>
+      <c r="C16" s="51"/>
+      <c r="H16" s="60"/>
     </row>
     <row r="17" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="53"/>
       <c r="B17" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="53"/>
+        <v>80</v>
+      </c>
+      <c r="C17" s="51"/>
     </row>
     <row r="18" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="51">
-        <v>6</v>
-      </c>
+      <c r="A18" s="53"/>
       <c r="B18" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="54">
-        <v>44132</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C18" s="51"/>
     </row>
     <row r="19" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="52"/>
-      <c r="B19" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="52"/>
+      <c r="A19" s="53">
+        <v>5</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="51">
+        <v>44139</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="20" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="53"/>
       <c r="B20" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="53"/>
+        <v>81</v>
+      </c>
+      <c r="C20" s="51"/>
     </row>
     <row r="21" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="51">
-        <v>7</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="54">
-        <v>44134</v>
-      </c>
+      <c r="A21" s="53"/>
+      <c r="B21" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="51"/>
     </row>
     <row r="22" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="52"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="52"/>
+      <c r="C22" s="51"/>
     </row>
     <row r="23" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="53"/>
+      <c r="A23" s="53">
+        <v>6</v>
+      </c>
       <c r="B23" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="53"/>
+        <v>78</v>
+      </c>
+      <c r="C23" s="51">
+        <v>44143</v>
+      </c>
     </row>
     <row r="24" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="51">
-        <v>8</v>
-      </c>
+      <c r="A24" s="53"/>
       <c r="B24" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="54">
-        <v>44136</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C24" s="51"/>
     </row>
     <row r="25" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="52"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="52"/>
+        <v>93</v>
+      </c>
+      <c r="C25" s="51"/>
     </row>
     <row r="26" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="53"/>
       <c r="B26" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="36" t="s">
-        <v>46</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C26" s="51"/>
     </row>
     <row r="27" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="39"/>
       <c r="C27" s="40"/>
     </row>
     <row r="28" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4023,24 +4040,20 @@
       <c r="C337" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C21:C23"/>
+  <mergeCells count="13">
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C15:C18"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4066,20 +4079,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="F1" s="57" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="F1" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="57"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>57</v>
@@ -4091,10 +4104,10 @@
         <v>69</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4135,7 +4148,7 @@
       </c>
       <c r="D4" s="37">
         <f>Sprints!C3</f>
-        <v>44121</v>
+        <v>44123</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4149,7 +4162,7 @@
       <c r="C5" s="30"/>
       <c r="D5" s="37">
         <f>Sprints!C6</f>
-        <v>44124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4163,12 +4176,12 @@
       <c r="C6" s="30"/>
       <c r="D6" s="37">
         <f>Sprints!C9</f>
-        <v>44126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B7" s="30">
         <f t="shared" si="0"/>
@@ -4177,12 +4190,12 @@
       <c r="C7" s="30"/>
       <c r="D7" s="37">
         <f>Sprints!C12</f>
-        <v>44128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B8" s="30">
         <f t="shared" si="0"/>
@@ -4191,12 +4204,12 @@
       <c r="C8" s="30"/>
       <c r="D8" s="37">
         <f>Sprints!C15</f>
-        <v>44130</v>
+        <v>44135</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B9" s="30">
         <f t="shared" si="0"/>
@@ -4205,12 +4218,12 @@
       <c r="C9" s="30"/>
       <c r="D9" s="37">
         <f>Sprints!C18</f>
-        <v>44132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B10" s="30">
         <f t="shared" si="0"/>
@@ -4219,12 +4232,12 @@
       <c r="C10" s="30"/>
       <c r="D10" s="37">
         <f>Sprints!C21</f>
-        <v>44134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B11" s="30">
         <f t="shared" si="0"/>
@@ -4233,7 +4246,7 @@
       <c r="C11" s="30"/>
       <c r="D11" s="37">
         <f>Sprints!C24</f>
-        <v>44136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4241,25 +4254,25 @@
       <c r="A21" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="59">
+      <c r="B21" s="56">
         <v>43997</v>
       </c>
-      <c r="C21" s="60"/>
+      <c r="C21" s="57"/>
     </row>
     <row r="22" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="59">
+      <c r="B22" s="56">
         <v>43983</v>
       </c>
-      <c r="C22" s="60"/>
+      <c r="C22" s="57"/>
     </row>
     <row r="23" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="58"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="34"/>
     </row>
   </sheetData>
